--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V302"/>
+  <dimension ref="A1:V303"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N276" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q276" t="inlineStr">
+      <c r="R276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U276" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -25873,46 +25873,46 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -25920,15 +25920,15 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -28238,6 +28238,98 @@
       <c r="V302" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-londrina/WxbkKYVi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E303" s="2" t="n">
+        <v>45205.01041666666</v>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="G303" t="n">
+        <v>0</v>
+      </c>
+      <c r="H303" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I303" t="n">
+        <v>0</v>
+      </c>
+      <c r="J303" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K303" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L303" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:10</t>
+        </is>
+      </c>
+      <c r="N303" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O303" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P303" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q303" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:10</t>
+        </is>
+      </c>
+      <c r="R303" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="S303" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T303" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="U303" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:10</t>
+        </is>
+      </c>
+      <c r="V303" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-abc/MRj2HWFA/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V303"/>
+  <dimension ref="A1:V305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.83</v>
+        <v>2.15</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,15 +7136,15 @@
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
@@ -7152,24 +7152,24 @@
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>3</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>3.12</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.05</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.99</v>
+        <v>3.74</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.22</v>
+        <v>5.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.92</v>
+        <v>7.21</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I138" t="n">
         <v>1</v>
       </c>
       <c r="J138" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.87</v>
+        <v>5.82</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.26</v>
+        <v>5.59</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>5.82</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,42 +16581,42 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -16624,28 +16624,28 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>2</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.05</v>
+        <v>3.51</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.82</v>
+        <v>5.8</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.71</v>
+        <v>5.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16765,7 +16765,7 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G178" t="n">
@@ -16773,63 +16773,63 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16857,30 +16857,30 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,31 +16888,31 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:49</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>2.87</v>
+        <v>4.17</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>2.94</v>
+        <v>8</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.33</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
         </is>
       </c>
     </row>
@@ -17225,71 +17225,71 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.49</v>
+        <v>2.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:49</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>4.17</v>
+        <v>2.87</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>9.210000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N188" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U188" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,38 +17785,38 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,15 +17824,15 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18789,46 +18789,46 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -18836,24 +18836,24 @@
         </is>
       </c>
       <c r="R200" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -18881,71 +18881,71 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R201" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>1</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
       <c r="J203" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>4.23</v>
+        <v>2.94</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>5.67</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>8.199999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,42 +19341,42 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P206" t="n">
@@ -19384,28 +19384,28 @@
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.68</v>
+        <v>3.26</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19433,42 +19433,42 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P207" t="n">
@@ -19476,28 +19476,28 @@
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.31</v>
+        <v>3.9</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.46</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.96</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.51</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:55</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:55</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
         </is>
       </c>
     </row>
@@ -25781,46 +25781,46 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -25828,15 +25828,15 @@
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N277" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P277" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q277" t="inlineStr">
+      <c r="R277" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U277" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T277" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U277" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -28330,6 +28330,190 @@
       <c r="V303" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-abc/MRj2HWFA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D304" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E304" s="2" t="n">
+        <v>45206.10416666666</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="G304" t="n">
+        <v>1</v>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I304" t="n">
+        <v>0</v>
+      </c>
+      <c r="J304" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="K304" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L304" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="M304" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:26</t>
+        </is>
+      </c>
+      <c r="N304" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O304" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P304" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q304" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R304" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="S304" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T304" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="U304" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:26</t>
+        </is>
+      </c>
+      <c r="V304" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D305" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E305" s="2" t="n">
+        <v>45206.10416666666</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G305" t="n">
+        <v>2</v>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I305" t="n">
+        <v>0</v>
+      </c>
+      <c r="J305" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K305" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L305" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M305" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:24</t>
+        </is>
+      </c>
+      <c r="N305" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="O305" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P305" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:24</t>
+        </is>
+      </c>
+      <c r="R305" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S305" t="inlineStr">
+        <is>
+          <t>01/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T305" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U305" t="inlineStr">
+        <is>
+          <t>07/10/2023 02:24</t>
+        </is>
+      </c>
+      <c r="V305" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V305"/>
+  <dimension ref="A1:V306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.35</v>
+        <v>3.67</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>03/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30/04/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>03/05/2023 23:57</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="R35" t="n">
         <v>3.35</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>30/04/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>03/05/2023 23:57</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>4.28</v>
-      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,63 +7297,63 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.84</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.77</v>
+        <v>2.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.65</v>
+        <v>2.79</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7381,62 +7381,62 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>3.35</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.99</v>
+        <v>1.76</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.59</v>
+        <v>5.82</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
       <c r="J167" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>2.69</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.82</v>
+        <v>2.95</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.71</v>
+        <v>3.29</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
       <c r="J204" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
       <c r="J207" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.31</v>
+        <v>2.46</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.68</v>
+        <v>3.51</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.9</v>
+        <v>3.48</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:55</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:55</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.63</v>
+        <v>3.02</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>5.97</v>
+        <v>3.87</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>6.24</v>
+        <v>4.36</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.02</v>
+        <v>3.63</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>3.87</v>
+        <v>5.97</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,108 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>4.36</v>
+        <v>6.24</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E306" s="2" t="n">
+        <v>45206.85416666666</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G306" t="n">
+        <v>1</v>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I306" t="n">
+        <v>1</v>
+      </c>
+      <c r="J306" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K306" t="inlineStr">
+        <is>
+          <t>02/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L306" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M306" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N306" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O306" t="inlineStr">
+        <is>
+          <t>02/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P306" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R306" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="S306" t="inlineStr">
+        <is>
+          <t>02/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T306" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="U306" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V306" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-esporte-clube-juventude/0Ik6GjVG/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V306"/>
+  <dimension ref="A1:V309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,24 +3656,24 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.16</v>
+        <v>4.55</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,63 +7297,63 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,30 +7381,30 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>3.12</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9773,30 +9773,30 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,15 +9804,15 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,15 +9820,15 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.04</v>
+        <v>3.63</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.02</v>
+        <v>5.82</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.85</v>
+        <v>5.59</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>5.82</v>
+        <v>3.87</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16857,42 +16857,42 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>1</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -16900,28 +16900,28 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.08</v>
+        <v>3.78</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.18</v>
+        <v>4.23</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>5.67</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -19441,26 +19441,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -19468,36 +19468,36 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.68</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N276" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q276" t="inlineStr">
+      <c r="R276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U276" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -25873,46 +25873,46 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -25920,15 +25920,15 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.02</v>
+        <v>3.63</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>3.87</v>
+        <v>5.97</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>4.36</v>
+        <v>6.24</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.63</v>
+        <v>3.02</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>5.97</v>
+        <v>3.87</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,16 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>6.24</v>
+        <v>4.36</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>
@@ -28606,6 +28606,282 @@
       <c r="V306" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-esporte-clube-juventude/0Ik6GjVG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E307" s="2" t="n">
+        <v>45206.91666666666</v>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G307" t="n">
+        <v>0</v>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I307" t="n">
+        <v>1</v>
+      </c>
+      <c r="J307" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K307" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L307" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M307" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N307" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O307" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P307" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R307" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S307" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T307" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="U307" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V307" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E308" s="2" t="n">
+        <v>45206.91666666666</v>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="G308" t="n">
+        <v>1</v>
+      </c>
+      <c r="H308" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I308" t="n">
+        <v>1</v>
+      </c>
+      <c r="J308" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K308" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L308" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="M308" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N308" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O308" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P308" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="Q308" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R308" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S308" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T308" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U308" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V308" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D309" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E309" s="2" t="n">
+        <v>45206.95833333334</v>
+      </c>
+      <c r="F309" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G309" t="n">
+        <v>1</v>
+      </c>
+      <c r="H309" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I309" t="n">
+        <v>1</v>
+      </c>
+      <c r="J309" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K309" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L309" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M309" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="N309" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O309" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P309" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q309" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R309" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="S309" t="inlineStr">
+        <is>
+          <t>02/10/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T309" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U309" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V309" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-vila-nova-fc/t8ZW1iGN/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V309"/>
+  <dimension ref="A1:V310"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -28882,6 +28882,98 @@
       <c r="V309" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-vila-nova-fc/t8ZW1iGN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E310" s="2" t="n">
+        <v>45207.95833333334</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G310" t="n">
+        <v>1</v>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I310" t="n">
+        <v>0</v>
+      </c>
+      <c r="J310" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K310" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="L310" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:52</t>
+        </is>
+      </c>
+      <c r="N310" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O310" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="P310" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q310" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:52</t>
+        </is>
+      </c>
+      <c r="R310" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S310" t="inlineStr">
+        <is>
+          <t>02/10/2023 06:12</t>
+        </is>
+      </c>
+      <c r="T310" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U310" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:52</t>
+        </is>
+      </c>
+      <c r="V310" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-vitoria/QuB3dVwo/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V310"/>
+  <dimension ref="A1:V311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -28974,6 +28974,98 @@
       <c r="V310" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-vitoria/QuB3dVwo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D311" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E311" s="2" t="n">
+        <v>45209.04166666666</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G311" t="n">
+        <v>3</v>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I311" t="n">
+        <v>3</v>
+      </c>
+      <c r="J311" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K311" t="inlineStr">
+        <is>
+          <t>02/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="L311" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M311" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="N311" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="O311" t="inlineStr">
+        <is>
+          <t>02/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P311" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="R311" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="S311" t="inlineStr">
+        <is>
+          <t>02/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="T311" t="n">
+        <v>9.609999999999999</v>
+      </c>
+      <c r="U311" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:58</t>
+        </is>
+      </c>
+      <c r="V311" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-ponte-preta/E1mfJhob/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V311"/>
+  <dimension ref="A1:V312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>3</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>3.12</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.83</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>3</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9681,30 +9681,30 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,15 +9712,15 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,15 +9728,15 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -12993,71 +12993,71 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>5.82</v>
+        <v>3.87</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.87</v>
+        <v>5.82</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.26</v>
+        <v>5.59</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,40 +16796,40 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,30 +16857,30 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>2</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,31 +16888,31 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
@@ -16921,7 +16921,7 @@
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,38 +17693,38 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -17732,15 +17732,15 @@
         </is>
       </c>
       <c r="R188" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,63 +17785,63 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N189" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R189" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T189" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.78</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4.23</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>5.67</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>8.199999999999999</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -19441,26 +19441,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -19468,36 +19468,36 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
       <c r="J209" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -29066,6 +29066,98 @@
       <c r="V311" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-ponte-preta/E1mfJhob/</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E312" s="2" t="n">
+        <v>45210.10416666666</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G312" t="n">
+        <v>1</v>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I312" t="n">
+        <v>2</v>
+      </c>
+      <c r="J312" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K312" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L312" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="M312" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N312" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O312" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P312" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="R312" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S312" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T312" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="U312" t="inlineStr">
+        <is>
+          <t>11/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V312" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-mirassol/4A8hSmUS/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V312"/>
+  <dimension ref="A1:V313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -29158,6 +29158,98 @@
       <c r="V312" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/abc-mirassol/4A8hSmUS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E313" s="2" t="n">
+        <v>45211.10416666666</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="G313" t="n">
+        <v>3</v>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I313" t="n">
+        <v>1</v>
+      </c>
+      <c r="J313" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K313" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L313" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M313" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:25</t>
+        </is>
+      </c>
+      <c r="N313" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O313" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P313" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:25</t>
+        </is>
+      </c>
+      <c r="R313" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="S313" t="inlineStr">
+        <is>
+          <t>07/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T313" t="n">
+        <v>7.06</v>
+      </c>
+      <c r="U313" t="inlineStr">
+        <is>
+          <t>12/10/2023 02:25</t>
+        </is>
+      </c>
+      <c r="V313" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-botafogo-sp/EPVtAl8p/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V313"/>
+  <dimension ref="A1:V314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N75" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q75" t="inlineStr">
+      <c r="R75" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U75" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R75" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9589,30 +9589,30 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,15 +9620,15 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,15 +9636,15 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.98</v>
+        <v>2.5</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.99</v>
+        <v>3</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.96</v>
+        <v>3.04</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.03</v>
+        <v>2.87</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:27</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.59</v>
+        <v>3.02</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.72</v>
+        <v>2.85</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
       <c r="J139" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13269,7 +13269,7 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G140" t="n">
@@ -13277,63 +13277,63 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.04</v>
+        <v>3.63</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.02</v>
+        <v>5.82</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.85</v>
+        <v>5.59</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,63 +16589,63 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16673,42 +16673,42 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>0</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>1</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -16716,28 +16716,28 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N188" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U188" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,38 +17785,38 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,15 +17824,15 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.08</v>
+        <v>3.78</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.18</v>
+        <v>4.23</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>5.67</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -19441,26 +19441,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -19468,36 +19468,36 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.68</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -29250,6 +29250,98 @@
       <c r="V313" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-botafogo-sp/EPVtAl8p/</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E314" s="2" t="n">
+        <v>45213.10416666666</v>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G314" t="n">
+        <v>1</v>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="I314" t="n">
+        <v>2</v>
+      </c>
+      <c r="J314" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="K314" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L314" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M314" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N314" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O314" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P314" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="R314" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S314" t="inlineStr">
+        <is>
+          <t>08/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T314" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="U314" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V314" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-chapecoense-sc/QaZp98Nj/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V314"/>
+  <dimension ref="A1:V317"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.27</v>
+        <v>2.34</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.22</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.13</v>
+        <v>3.1</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.35</v>
+        <v>3.67</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.65</v>
+        <v>3.54</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>03/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30/04/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>03/05/2023 23:57</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="R35" t="n">
         <v>3.35</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>30/04/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>03/05/2023 23:57</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>4.28</v>
-      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,38 +7297,38 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.71</v>
+        <v>2.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.41</v>
+        <v>3.12</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,24 +7336,24 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.92</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,32 +13032,32 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Mirassol</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.5</v>
+        <v>2.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>3</v>
+        <v>2.99</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.04</v>
+        <v>2.96</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>2.87</v>
+        <v>3.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.02</v>
+        <v>2.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.85</v>
+        <v>2.72</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.99</v>
+        <v>1.76</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.59</v>
+        <v>5.82</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>5.82</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
       <c r="J167" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,42 +16581,42 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -16624,28 +16624,28 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J177" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.8</v>
+        <v>3.82</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>5.96</v>
+        <v>4.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.58</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>2.69</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>2.99</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.82</v>
+        <v>2.95</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.71</v>
+        <v>3.29</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.78</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>4.23</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>5.67</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>8.199999999999999</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G207" t="n">
@@ -19441,26 +19441,26 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N207" t="n">
@@ -19468,36 +19468,36 @@
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.1</v>
+        <v>2.31</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.08</v>
+        <v>2.97</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.79</v>
+        <v>3.68</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>4.11</v>
+        <v>3.9</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
       <c r="J209" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.63</v>
+        <v>3.02</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>5.97</v>
+        <v>3.87</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>6.24</v>
+        <v>4.36</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.02</v>
+        <v>3.63</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>3.87</v>
+        <v>5.97</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,16 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>4.36</v>
+        <v>6.24</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
         </is>
       </c>
     </row>
@@ -29342,6 +29342,282 @@
       <c r="V314" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-chapecoense-sc/QaZp98Nj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E315" s="2" t="n">
+        <v>45213.91666666666</v>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G315" t="n">
+        <v>0</v>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I315" t="n">
+        <v>0</v>
+      </c>
+      <c r="J315" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K315" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L315" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M315" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="N315" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O315" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P315" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="R315" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S315" t="inlineStr">
+        <is>
+          <t>07/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T315" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U315" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:59</t>
+        </is>
+      </c>
+      <c r="V315" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E316" s="2" t="n">
+        <v>45213.91666666666</v>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="G316" t="n">
+        <v>0</v>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I316" t="n">
+        <v>0</v>
+      </c>
+      <c r="J316" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="K316" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L316" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="M316" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:54</t>
+        </is>
+      </c>
+      <c r="N316" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O316" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P316" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:54</t>
+        </is>
+      </c>
+      <c r="R316" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="S316" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T316" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="U316" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:54</t>
+        </is>
+      </c>
+      <c r="V316" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E317" s="2" t="n">
+        <v>45213.97916666666</v>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="G317" t="n">
+        <v>0</v>
+      </c>
+      <c r="H317" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I317" t="n">
+        <v>0</v>
+      </c>
+      <c r="J317" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K317" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L317" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M317" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="N317" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O317" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P317" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q317" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="R317" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="S317" t="inlineStr">
+        <is>
+          <t>09/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T317" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="U317" t="inlineStr">
+        <is>
+          <t>14/10/2023 23:28</t>
+        </is>
+      </c>
+      <c r="V317" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-sampaio-correa/ELFuVkpA/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V317"/>
+  <dimension ref="A1:V318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>2.17</v>
+        <v>2.25</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.34</v>
+        <v>2.27</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.22</v>
+        <v>3.15</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.1</v>
+        <v>3.13</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.67</v>
+        <v>3.35</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.54</v>
+        <v>3.65</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -3609,46 +3609,46 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>3</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>2</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
@@ -3656,24 +3656,24 @@
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.35</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.77</v>
+        <v>2.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>2.98</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.39</v>
+        <v>3.12</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.98</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.65</v>
+        <v>2.79</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7289,30 +7289,30 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.83</v>
+        <v>2.15</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,15 +7320,15 @@
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.98</v>
+        <v>3.12</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.35</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
@@ -7336,24 +7336,24 @@
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.79</v>
+        <v>3.7</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9589,30 +9589,30 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>1</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,15 +9620,15 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,15 +9636,15 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.74</v>
+        <v>3.18</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.08</v>
+        <v>3.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>7.21</v>
+        <v>3.2</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.05</v>
+        <v>3.56</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.99</v>
+        <v>3.74</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.22</v>
+        <v>5.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.92</v>
+        <v>7.21</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,15 +13032,15 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.87</v>
+        <v>3.11</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.02</v>
+        <v>3.87</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
@@ -13048,7 +13048,7 @@
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.85</v>
+        <v>4.26</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
@@ -13057,7 +13057,7 @@
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J176" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,40 +16796,40 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,38 +17693,38 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -17732,15 +17732,15 @@
         </is>
       </c>
       <c r="R188" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,63 +17785,63 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N189" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R189" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T189" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -29618,6 +29618,98 @@
       <c r="V317" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-sampaio-correa/ELFuVkpA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E318" s="2" t="n">
+        <v>45214.86458333334</v>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G318" t="n">
+        <v>0</v>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="I318" t="n">
+        <v>2</v>
+      </c>
+      <c r="J318" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="K318" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L318" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M318" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N318" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O318" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P318" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:44</t>
+        </is>
+      </c>
+      <c r="R318" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S318" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T318" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U318" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:35</t>
+        </is>
+      </c>
+      <c r="V318" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-atletico-go/dpqFEUaT/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V318"/>
+  <dimension ref="A1:V320"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.71</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N74" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q74" t="inlineStr">
+      <c r="R74" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U74" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R74" t="n">
-        <v>3</v>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.1</v>
+        <v>4.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.7</v>
+        <v>5.65</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,38 +7389,38 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>2.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.12</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,24 +7428,24 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>3</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>2.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9589,30 +9589,30 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,15 +9620,15 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,15 +9636,15 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -12993,22 +12993,22 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
@@ -13024,7 +13024,7 @@
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
@@ -13032,32 +13032,32 @@
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R137" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U137" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.99</v>
+        <v>1.76</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.59</v>
+        <v>5.82</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
       <c r="J139" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.87</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.02</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.85</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>2</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,31 +16796,31 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
@@ -16829,7 +16829,7 @@
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16857,30 +16857,30 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,40 +16888,40 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R179" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T179" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>1.49</v>
+        <v>2.7</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:49</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>4.17</v>
+        <v>2.87</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>3.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>9.210000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
         </is>
       </c>
     </row>
@@ -17225,71 +17225,71 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:49</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>2.87</v>
+        <v>4.17</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>2.94</v>
+        <v>8</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>3.33</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N188" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U188" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,38 +17785,38 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,15 +17824,15 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>1</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
       <c r="J203" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19249,7 +19249,7 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
@@ -19257,26 +19257,26 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.51</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.59</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N205" t="n">
@@ -19284,36 +19284,36 @@
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.31</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>3.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19433,22 +19433,22 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>1</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>0</v>
-      </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -19456,15 +19456,15 @@
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
@@ -19472,15 +19472,15 @@
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
@@ -19488,16 +19488,16 @@
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19525,7 +19525,7 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G208" t="n">
@@ -19533,63 +19533,63 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.31</v>
+        <v>2.1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.97</v>
+        <v>3.08</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.68</v>
+        <v>3.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.9</v>
+        <v>4.11</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="n">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="N284" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
         <v>3.2</v>
       </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P284" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q284" t="inlineStr">
-        <is>
-          <t>23/09/2023 01:50</t>
-        </is>
-      </c>
-      <c r="R284" t="n">
-        <v>4.5</v>
-      </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.07</v>
+        <v>3.26</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:50</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.02</v>
+        <v>3.63</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>3.87</v>
+        <v>5.97</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>4.36</v>
+        <v>6.24</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.63</v>
+        <v>3.02</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>5.97</v>
+        <v>3.87</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,16 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>6.24</v>
+        <v>4.36</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>
@@ -29710,6 +29710,190 @@
       <c r="V318" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-atletico-go/dpqFEUaT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E319" s="2" t="n">
+        <v>45214.95833333334</v>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G319" t="n">
+        <v>2</v>
+      </c>
+      <c r="H319" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I319" t="n">
+        <v>0</v>
+      </c>
+      <c r="J319" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K319" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L319" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M319" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:56</t>
+        </is>
+      </c>
+      <c r="N319" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O319" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P319" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q319" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:45</t>
+        </is>
+      </c>
+      <c r="R319" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="S319" t="inlineStr">
+        <is>
+          <t>09/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T319" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="U319" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V319" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-guarani/zVGyWVU3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E320" s="2" t="n">
+        <v>45214.97916666666</v>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="G320" t="n">
+        <v>1</v>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I320" t="n">
+        <v>1</v>
+      </c>
+      <c r="J320" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="K320" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L320" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M320" t="inlineStr">
+        <is>
+          <t>15/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="N320" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O320" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P320" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>15/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="R320" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S320" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T320" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="U320" t="inlineStr">
+        <is>
+          <t>15/10/2023 23:29</t>
+        </is>
+      </c>
+      <c r="V320" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-avai/Am9lTTEM/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V320"/>
+  <dimension ref="A1:V321"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29897,6 +29897,98 @@
         </is>
       </c>
     </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E321" s="2" t="n">
+        <v>45216.04166666666</v>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G321" t="n">
+        <v>2</v>
+      </c>
+      <c r="H321" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I321" t="n">
+        <v>2</v>
+      </c>
+      <c r="J321" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K321" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L321" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M321" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="N321" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="O321" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P321" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q321" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="R321" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S321" t="inlineStr">
+        <is>
+          <t>10/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T321" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="U321" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:59</t>
+        </is>
+      </c>
+      <c r="V321" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-sport-recife/dp5pU9aG/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V321"/>
+  <dimension ref="A1:V323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7105,30 +7105,30 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>1</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>3</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
@@ -7136,40 +7136,40 @@
         </is>
       </c>
       <c r="N73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
         <v>3.12</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7197,62 +7197,62 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N74" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>3.35</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
@@ -7261,7 +7261,7 @@
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,63 +7389,63 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.67</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.83</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="Q76" t="inlineStr">
+      <c r="R76" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R76" t="n">
-        <v>3</v>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>21/05/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T76" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:58</t>
-        </is>
-      </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.53</v>
+        <v>4.55</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>2.26</v>
+        <v>5.11</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>1</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
       <c r="J96" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
@@ -9276,16 +9276,16 @@
         </is>
       </c>
       <c r="T96" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:45</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>4.14</v>
+        <v>3.54</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:58</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>7.82</v>
+        <v>5.79</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>9.82</v>
+        <v>5.49</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:42</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G107" t="n">
+        <v>2</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
         <v>1</v>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
       <c r="J107" t="n">
-        <v>1.63</v>
+        <v>1.47</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.73</v>
+        <v>1.38</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:45</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.54</v>
+        <v>4.14</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.65</v>
+        <v>4.7</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:58</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>5.79</v>
+        <v>7.82</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.49</v>
+        <v>9.82</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:42</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J116" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.04</v>
+        <v>3.63</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.02</v>
+        <v>5.82</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.85</v>
+        <v>5.59</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.99</v>
+        <v>2.09</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.59</v>
+        <v>3.87</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.72</v>
+        <v>4.26</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
       <c r="J167" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16581,7 +16581,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G176" t="n">
@@ -16589,63 +16589,63 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,40 +16796,40 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J179" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -17133,71 +17133,71 @@
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I182" t="n">
         <v>1</v>
       </c>
       <c r="J182" t="n">
-        <v>2.7</v>
+        <v>1.49</v>
       </c>
       <c r="K182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L182" t="n">
-        <v>2.57</v>
+        <v>1.47</v>
       </c>
       <c r="M182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:49</t>
         </is>
       </c>
       <c r="N182" t="n">
-        <v>2.87</v>
+        <v>4.17</v>
       </c>
       <c r="O182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="P182" t="n">
-        <v>2.92</v>
+        <v>3.98</v>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="R182" t="n">
-        <v>2.94</v>
+        <v>8</v>
       </c>
       <c r="S182" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="T182" t="n">
-        <v>3.33</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="U182" t="inlineStr">
         <is>
-          <t>22/07/2023 21:58</t>
+          <t>22/07/2023 21:53</t>
         </is>
       </c>
       <c r="V182" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
         </is>
       </c>
     </row>
@@ -17225,71 +17225,71 @@
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I183" t="n">
         <v>1</v>
       </c>
       <c r="J183" t="n">
-        <v>1.49</v>
+        <v>2.7</v>
       </c>
       <c r="K183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L183" t="n">
-        <v>1.47</v>
+        <v>2.57</v>
       </c>
       <c r="M183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:49</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="N183" t="n">
-        <v>4.17</v>
+        <v>2.87</v>
       </c>
       <c r="O183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P183" t="n">
-        <v>3.98</v>
+        <v>2.92</v>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="R183" t="n">
-        <v>8</v>
+        <v>2.94</v>
       </c>
       <c r="S183" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T183" t="n">
-        <v>9.210000000000001</v>
+        <v>3.33</v>
       </c>
       <c r="U183" t="inlineStr">
         <is>
-          <t>22/07/2023 21:53</t>
+          <t>22/07/2023 21:58</t>
         </is>
       </c>
       <c r="V183" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-abc/Gf3pZnOT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-novorizontino/I3kCU6Wp/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,38 +17693,38 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J188" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N188" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P188" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
@@ -17732,15 +17732,15 @@
         </is>
       </c>
       <c r="R188" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S188" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T188" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U188" t="inlineStr">
         <is>
@@ -17749,7 +17749,7 @@
       </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,63 +17785,63 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J189" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N189" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P189" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q189" t="inlineStr">
+      <c r="R189" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U189" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R189" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S189" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T189" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U189" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R200" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -18881,46 +18881,46 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,24 +18928,24 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.2</v>
+        <v>1.6</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.1</v>
+        <v>1.47</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.08</v>
+        <v>3.78</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.18</v>
+        <v>4.23</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.79</v>
+        <v>5.67</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>4.11</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.59</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.26</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,31 +22040,31 @@
         </is>
       </c>
       <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>2.95</v>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S235" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P235" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T235" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,32 +22140,32 @@
         </is>
       </c>
       <c r="P236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q236" t="inlineStr">
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U236" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R236" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T236" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3.07</v>
+        <v>3.26</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:50</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="n">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="N285" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
         <v>3.2</v>
       </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P285" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q285" t="inlineStr">
-        <is>
-          <t>23/09/2023 01:50</t>
-        </is>
-      </c>
-      <c r="R285" t="n">
-        <v>4.5</v>
-      </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
         </is>
       </c>
     </row>
@@ -29369,7 +29369,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -29377,63 +29377,63 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>2.37</v>
+        <v>1.51</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>2.95</v>
+        <v>3.89</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>2.99</v>
+        <v>4.03</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="R315" t="n">
-        <v>3.55</v>
+        <v>6.63</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T315" t="n">
-        <v>3.79</v>
+        <v>7.51</v>
       </c>
       <c r="U315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="V315" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -29469,63 +29469,63 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>1.51</v>
+        <v>2.37</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="R316" t="n">
-        <v>6.63</v>
+        <v>3.55</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="T316" t="n">
-        <v>7.51</v>
+        <v>3.79</v>
       </c>
       <c r="U316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
         </is>
       </c>
     </row>
@@ -29986,6 +29986,190 @@
       <c r="V321" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-sport-recife/dp5pU9aG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E322" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="G322" t="n">
+        <v>3</v>
+      </c>
+      <c r="H322" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I322" t="n">
+        <v>1</v>
+      </c>
+      <c r="J322" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="K322" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L322" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M322" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="N322" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="O322" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P322" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q322" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R322" t="n">
+        <v>9.109999999999999</v>
+      </c>
+      <c r="S322" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T322" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="U322" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V322" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E323" s="2" t="n">
+        <v>45219</v>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G323" t="n">
+        <v>2</v>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I323" t="n">
+        <v>1</v>
+      </c>
+      <c r="J323" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K323" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L323" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="M323" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:47</t>
+        </is>
+      </c>
+      <c r="N323" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O323" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P323" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:47</t>
+        </is>
+      </c>
+      <c r="R323" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="S323" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T323" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="U323" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:47</t>
+        </is>
+      </c>
+      <c r="V323" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V323"/>
+  <dimension ref="A1:V325"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -25781,46 +25781,46 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -25828,15 +25828,15 @@
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N277" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P277" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q277" t="inlineStr">
+      <c r="R277" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U277" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T277" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U277" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -30170,6 +30170,190 @@
       <c r="V323" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E324" s="2" t="n">
+        <v>45220</v>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="G324" t="n">
+        <v>0</v>
+      </c>
+      <c r="H324" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I324" t="n">
+        <v>1</v>
+      </c>
+      <c r="J324" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K324" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L324" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M324" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:58</t>
+        </is>
+      </c>
+      <c r="N324" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="O324" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P324" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q324" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R324" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="S324" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T324" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U324" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:58</t>
+        </is>
+      </c>
+      <c r="V324" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-vitoria/0h6FsTTF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E325" s="2" t="n">
+        <v>45220.10416666666</v>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="G325" t="n">
+        <v>0</v>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I325" t="n">
+        <v>0</v>
+      </c>
+      <c r="J325" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K325" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L325" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="M325" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="N325" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O325" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P325" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="R325" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="S325" t="inlineStr">
+        <is>
+          <t>15/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T325" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="U325" t="inlineStr">
+        <is>
+          <t>21/10/2023 02:29</t>
+        </is>
+      </c>
+      <c r="V325" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-guarani/vwI6qka3/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V325"/>
+  <dimension ref="A1:V328"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,14 +7297,14 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.56</v>
+        <v>3.2</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/05/2023 22:00</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.2</v>
+        <v>4.56</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 22:00</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
         </is>
       </c>
     </row>
@@ -10049,71 +10049,71 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
       <c r="J105" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:45</t>
+          <t>07/06/2023 23:49</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.54</v>
+        <v>3.34</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:58</t>
+          <t>07/06/2023 23:49</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>5.79</v>
+        <v>4.93</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="T105" t="n">
-        <v>5.49</v>
+        <v>4.91</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:42</t>
+          <t>07/06/2023 23:51</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-londrina/CKaKdAcm/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.84</v>
+        <v>1.63</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:49</t>
+          <t>07/06/2023 23:45</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.34</v>
+        <v>3.54</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:49</t>
+          <t>07/06/2023 23:58</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>4.93</v>
+        <v>5.79</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>4.91</v>
+        <v>5.49</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:51</t>
+          <t>07/06/2023 23:42</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-londrina/CKaKdAcm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,14 +10977,14 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J115" t="n">
-        <v>2.93</v>
+        <v>3.04</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -10992,15 +10992,15 @@
         </is>
       </c>
       <c r="L115" t="n">
-        <v>3.75</v>
+        <v>3.72</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
@@ -11008,15 +11008,15 @@
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>2.57</v>
+        <v>2.52</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
@@ -11024,16 +11024,16 @@
         </is>
       </c>
       <c r="T115" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/06/2023 15:59</t>
+          <t>11/06/2023 15:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
         </is>
       </c>
     </row>
@@ -11061,7 +11061,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G116" t="n">
@@ -11069,14 +11069,14 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I116" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116" t="n">
-        <v>3.04</v>
+        <v>2.93</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>3.72</v>
+        <v>3.75</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3</v>
+        <v>3.03</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.11</v>
+        <v>3.12</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/06/2023 15:53</t>
+          <t>11/06/2023 15:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-sport-recife/t0iygSdC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-mirassol/f3HA7RB5/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.63</v>
+        <v>3.04</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:27</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>5.82</v>
+        <v>3.02</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>5.59</v>
+        <v>2.85</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.99</v>
+        <v>1.76</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.59</v>
+        <v>5.82</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J139" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.87</v>
+        <v>2.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.26</v>
+        <v>2.72</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.87</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.02</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.85</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18789,46 +18789,46 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -18836,24 +18836,24 @@
         </is>
       </c>
       <c r="R200" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -18881,71 +18881,71 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R201" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
       <c r="J204" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -29369,7 +29369,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -29377,63 +29377,63 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>1.51</v>
+        <v>2.37</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="R315" t="n">
-        <v>6.63</v>
+        <v>3.55</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="T315" t="n">
-        <v>7.51</v>
+        <v>3.79</v>
       </c>
       <c r="U315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="V315" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -29469,63 +29469,63 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>2.37</v>
+        <v>1.51</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>2.95</v>
+        <v>3.89</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>2.99</v>
+        <v>4.03</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="R316" t="n">
-        <v>3.55</v>
+        <v>6.63</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T316" t="n">
-        <v>3.79</v>
+        <v>7.51</v>
       </c>
       <c r="U316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
         </is>
       </c>
     </row>
@@ -30354,6 +30354,282 @@
       <c r="V325" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-guarani/vwI6qka3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E326" s="2" t="n">
+        <v>45220.91666666666</v>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G326" t="n">
+        <v>0</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
+        <v>1</v>
+      </c>
+      <c r="J326" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K326" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L326" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M326" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:55</t>
+        </is>
+      </c>
+      <c r="N326" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O326" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P326" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R326" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S326" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T326" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="U326" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:55</t>
+        </is>
+      </c>
+      <c r="V326" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-criciuma/EanjyR6q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E327" s="2" t="n">
+        <v>45220.91666666666</v>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G327" t="n">
+        <v>2</v>
+      </c>
+      <c r="H327" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I327" t="n">
+        <v>0</v>
+      </c>
+      <c r="J327" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O327" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P327" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q327" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="R327" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S327" t="inlineStr">
+        <is>
+          <t>14/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T327" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U327" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V327" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-novorizontino/QZD2pVqc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E328" s="2" t="n">
+        <v>45220.95833333334</v>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G328" t="n">
+        <v>2</v>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I328" t="n">
+        <v>2</v>
+      </c>
+      <c r="J328" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="K328" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L328" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M328" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:53</t>
+        </is>
+      </c>
+      <c r="N328" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O328" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P328" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R328" t="n">
+        <v>7.03</v>
+      </c>
+      <c r="S328" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T328" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="U328" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V328" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-londrina/URAJtmqM/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V328"/>
+  <dimension ref="A1:V330"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,63 +7113,63 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7197,30 +7197,30 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>3</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
@@ -7228,40 +7228,40 @@
         </is>
       </c>
       <c r="N74" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
         <v>3.12</v>
       </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P74" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q74" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7289,62 +7289,62 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N75" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>3.35</v>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q75" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
@@ -7353,7 +7353,7 @@
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.2</v>
+        <v>4.56</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 22:00</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.56</v>
+        <v>3.2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/05/2023 22:00</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -10049,7 +10049,7 @@
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G105" t="n">
@@ -10057,14 +10057,14 @@
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -10072,15 +10072,15 @@
         </is>
       </c>
       <c r="L105" t="n">
-        <v>1.83</v>
+        <v>1.38</v>
       </c>
       <c r="M105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:49</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="N105" t="n">
-        <v>3.34</v>
+        <v>4.14</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
@@ -10088,15 +10088,15 @@
         </is>
       </c>
       <c r="P105" t="n">
-        <v>3.49</v>
+        <v>4.7</v>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:49</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="R105" t="n">
-        <v>4.93</v>
+        <v>7.82</v>
       </c>
       <c r="S105" t="inlineStr">
         <is>
@@ -10104,16 +10104,16 @@
         </is>
       </c>
       <c r="T105" t="n">
-        <v>4.91</v>
+        <v>9.82</v>
       </c>
       <c r="U105" t="inlineStr">
         <is>
-          <t>07/06/2023 23:51</t>
+          <t>07/06/2023 23:59</t>
         </is>
       </c>
       <c r="V105" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-londrina/CKaKdAcm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1.63</v>
+        <v>1.84</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:45</t>
+          <t>07/06/2023 23:49</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.54</v>
+        <v>3.34</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:58</t>
+          <t>07/06/2023 23:49</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>5.79</v>
+        <v>4.93</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>04/06/2023 20:42</t>
+          <t>04/06/2023 23:11</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>5.49</v>
+        <v>4.91</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>07/06/2023 23:42</t>
+          <t>07/06/2023 23:51</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-londrina/CKaKdAcm/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J107" t="n">
-        <v>1.47</v>
+        <v>1.63</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.38</v>
+        <v>1.73</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:45</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>4.14</v>
+        <v>3.54</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>4.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:58</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>7.82</v>
+        <v>5.79</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/06/2023 23:11</t>
+          <t>04/06/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>9.82</v>
+        <v>5.49</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>07/06/2023 23:59</t>
+          <t>07/06/2023 23:42</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-avai/YT0Gcjrs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-guarani/rksd2WZP/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>2.5</v>
+        <v>1.67</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>1.76</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.04</v>
+        <v>3.63</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>2.87</v>
+        <v>3.45</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>3.02</v>
+        <v>5.82</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>2.85</v>
+        <v>5.59</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>2</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>1</v>
-      </c>
       <c r="J138" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.99</v>
+        <v>2.09</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.59</v>
+        <v>3.87</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.72</v>
+        <v>4.26</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>2.5</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.09</v>
+        <v>3</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>3.04</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,32 +13308,32 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>2.87</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>29/06/2023 02:27</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>22/06/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
           <t>29/06/2023 02:28</t>
         </is>
       </c>
-      <c r="R140" t="n">
-        <v>3.87</v>
-      </c>
-      <c r="S140" t="inlineStr">
-        <is>
-          <t>22/06/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T140" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="U140" t="inlineStr">
-        <is>
-          <t>29/06/2023 02:28</t>
-        </is>
-      </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,42 +16581,42 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
@@ -16624,28 +16624,28 @@
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>2</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.05</v>
+        <v>3.51</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.82</v>
+        <v>5.8</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>4.71</v>
+        <v>5.96</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16765,42 +16765,42 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I178" t="n">
-        <v>1</v>
-      </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P178" t="n">
@@ -16808,28 +16808,28 @@
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>5.8</v>
+        <v>3.82</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>5.96</v>
+        <v>4.71</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G203" t="n">
+        <v>2</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
         <v>1</v>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I203" t="n">
-        <v>0</v>
-      </c>
       <c r="J203" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J204" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
+          <t>03/08/2023 02:24</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="R205" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="S205" t="inlineStr">
-        <is>
-          <t>30/07/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T205" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U205" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:21</t>
-        </is>
-      </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19341,71 +19341,71 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N206" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P206" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>1.6</v>
+        <v>2.51</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.47</v>
+        <v>2.59</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>5.67</v>
+        <v>3.26</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>8.199999999999999</v>
+        <v>3.31</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" t="n">
-        <v>2.51</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.59</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.96</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.26</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.31</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J258" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N276" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q276" t="inlineStr">
+      <c r="R276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U276" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -25873,46 +25873,46 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -25920,15 +25920,15 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -30381,71 +30381,71 @@
       </c>
       <c r="F326" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G326" t="n">
+        <v>2</v>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>Criciuma</t>
-        </is>
-      </c>
-      <c r="I326" t="n">
-        <v>1</v>
-      </c>
       <c r="J326" t="n">
-        <v>1.98</v>
+        <v>3.14</v>
       </c>
       <c r="K326" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>14/10/2023 22:42</t>
         </is>
       </c>
       <c r="L326" t="n">
-        <v>2.02</v>
+        <v>3.62</v>
       </c>
       <c r="M326" t="inlineStr">
         <is>
-          <t>21/10/2023 21:55</t>
+          <t>21/10/2023 21:58</t>
         </is>
       </c>
       <c r="N326" t="n">
-        <v>3.14</v>
+        <v>2.89</v>
       </c>
       <c r="O326" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>14/10/2023 22:42</t>
         </is>
       </c>
       <c r="P326" t="n">
-        <v>3.22</v>
+        <v>2.94</v>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
-          <t>21/10/2023 21:55</t>
+          <t>21/10/2023 21:58</t>
         </is>
       </c>
       <c r="R326" t="n">
-        <v>4.54</v>
+        <v>2.53</v>
       </c>
       <c r="S326" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>14/10/2023 22:42</t>
         </is>
       </c>
       <c r="T326" t="n">
-        <v>4.36</v>
+        <v>2.4</v>
       </c>
       <c r="U326" t="inlineStr">
         <is>
-          <t>21/10/2023 21:55</t>
+          <t>21/10/2023 21:58</t>
         </is>
       </c>
       <c r="V326" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-criciuma/EanjyR6q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-novorizontino/QZD2pVqc/</t>
         </is>
       </c>
     </row>
@@ -30473,71 +30473,71 @@
       </c>
       <c r="F327" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H327" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I327" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J327" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K327" t="inlineStr">
+        <is>
+          <t>14/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L327" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>21/10/2023 21:55</t>
+        </is>
+      </c>
+      <c r="N327" t="n">
         <v>3.14</v>
       </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>14/10/2023 22:42</t>
-        </is>
-      </c>
-      <c r="L327" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="M327" t="inlineStr">
-        <is>
-          <t>21/10/2023 21:58</t>
-        </is>
-      </c>
-      <c r="N327" t="n">
-        <v>2.89</v>
-      </c>
       <c r="O327" t="inlineStr">
         <is>
-          <t>14/10/2023 22:42</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="P327" t="n">
-        <v>2.94</v>
+        <v>3.22</v>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
-          <t>21/10/2023 21:58</t>
+          <t>21/10/2023 21:55</t>
         </is>
       </c>
       <c r="R327" t="n">
-        <v>2.53</v>
+        <v>4.54</v>
       </c>
       <c r="S327" t="inlineStr">
         <is>
-          <t>14/10/2023 22:42</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="T327" t="n">
-        <v>2.4</v>
+        <v>4.36</v>
       </c>
       <c r="U327" t="inlineStr">
         <is>
-          <t>21/10/2023 21:58</t>
+          <t>21/10/2023 21:55</t>
         </is>
       </c>
       <c r="V327" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-novorizontino/QZD2pVqc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-criciuma/EanjyR6q/</t>
         </is>
       </c>
     </row>
@@ -30630,6 +30630,190 @@
       <c r="V328" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-londrina/URAJtmqM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E329" s="2" t="n">
+        <v>45221.95833333334</v>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="G329" t="n">
+        <v>1</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
+        <v>0</v>
+      </c>
+      <c r="J329" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K329" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L329" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M329" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="N329" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O329" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P329" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:51</t>
+        </is>
+      </c>
+      <c r="R329" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S329" t="inlineStr">
+        <is>
+          <t>16/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T329" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U329" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:50</t>
+        </is>
+      </c>
+      <c r="V329" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ceara/CWPKLo7d/</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E330" s="2" t="n">
+        <v>45221.95833333334</v>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G330" t="n">
+        <v>2</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
+        <v>1</v>
+      </c>
+      <c r="J330" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K330" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L330" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M330" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:52</t>
+        </is>
+      </c>
+      <c r="N330" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="O330" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P330" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="R330" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S330" t="inlineStr">
+        <is>
+          <t>17/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T330" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="U330" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:59</t>
+        </is>
+      </c>
+      <c r="V330" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V330"/>
+  <dimension ref="A1:V331"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -30814,6 +30814,98 @@
       <c r="V330" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E331" s="2" t="n">
+        <v>45223.04166666666</v>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G331" t="n">
+        <v>0</v>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I331" t="n">
+        <v>0</v>
+      </c>
+      <c r="J331" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K331" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="L331" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:31</t>
+        </is>
+      </c>
+      <c r="N331" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="O331" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="P331" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:31</t>
+        </is>
+      </c>
+      <c r="R331" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="S331" t="inlineStr">
+        <is>
+          <t>16/10/2023 00:42</t>
+        </is>
+      </c>
+      <c r="T331" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="U331" t="inlineStr">
+        <is>
+          <t>24/10/2023 00:32</t>
+        </is>
+      </c>
+      <c r="V331" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-ituano/6JfKN7xp/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V331"/>
+  <dimension ref="A1:V332"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7105,7 +7105,7 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -7113,14 +7113,14 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -7128,15 +7128,15 @@
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -7144,15 +7144,15 @@
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
@@ -7160,16 +7160,16 @@
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>1.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>1.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.35</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>4.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>5.65</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.74</v>
+        <v>3.18</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.08</v>
+        <v>3.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>7.21</v>
+        <v>3.2</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J103" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.35</v>
+        <v>4.47</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ituano/4brh3CKJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ceara/xhj6u9SC/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J104" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.37</v>
+        <v>3.21</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.57</v>
+        <v>3.22</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ceara/xhj6u9SC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ituano/4brh3CKJ/</t>
         </is>
       </c>
     </row>
@@ -14741,71 +14741,71 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>1</v>
       </c>
       <c r="J156" t="n">
-        <v>2.18</v>
+        <v>2.42</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="L156" t="n">
-        <v>2.17</v>
+        <v>2.84</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>3.06</v>
+        <v>2.98</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="P156" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>3.85</v>
+        <v>3.21</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
-          <t>03/07/2023 01:42</t>
+          <t>03/07/2023 23:12</t>
         </is>
       </c>
       <c r="T156" t="n">
-        <v>4.18</v>
+        <v>2.85</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>08/07/2023 21:57</t>
+          <t>08/07/2023 21:58</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
         </is>
       </c>
     </row>
@@ -14833,71 +14833,71 @@
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I157" t="n">
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2.42</v>
+        <v>2.18</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="L157" t="n">
-        <v>2.84</v>
+        <v>2.17</v>
       </c>
       <c r="M157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="N157" t="n">
-        <v>2.98</v>
+        <v>3.06</v>
       </c>
       <c r="O157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="P157" t="n">
-        <v>3.04</v>
+        <v>3</v>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="R157" t="n">
-        <v>3.21</v>
+        <v>3.85</v>
       </c>
       <c r="S157" t="inlineStr">
         <is>
-          <t>03/07/2023 23:12</t>
+          <t>03/07/2023 01:42</t>
         </is>
       </c>
       <c r="T157" t="n">
-        <v>2.85</v>
+        <v>4.18</v>
       </c>
       <c r="U157" t="inlineStr">
         <is>
-          <t>08/07/2023 21:58</t>
+          <t>08/07/2023 21:57</t>
         </is>
       </c>
       <c r="V157" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-esporte-clube-juventude/Y9tWXrs8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ponte-preta/fPAkPjw8/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
       <c r="J166" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>1</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
       <c r="J167" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16581,30 +16581,30 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,31 +16612,31 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16857,30 +16857,30 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J179" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
@@ -16888,40 +16888,40 @@
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R179" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S179" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T179" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U179" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -17685,7 +17685,7 @@
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G188" t="n">
@@ -17693,63 +17693,63 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J188" t="n">
-        <v>2.36</v>
+        <v>1.74</v>
       </c>
       <c r="K188" t="inlineStr">
         <is>
-          <t>20/07/2023 00:12</t>
+          <t>20/07/2023 02:42</t>
         </is>
       </c>
       <c r="L188" t="n">
-        <v>2.68</v>
+        <v>1.74</v>
       </c>
       <c r="M188" t="inlineStr">
         <is>
+          <t>24/07/2023 23:30</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="N188" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="O188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="P188" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="Q188" t="inlineStr">
+      <c r="R188" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="U188" t="inlineStr">
         <is>
           <t>24/07/2023 23:59</t>
         </is>
       </c>
-      <c r="R188" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="S188" t="inlineStr">
-        <is>
-          <t>20/07/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T188" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="U188" t="inlineStr">
-        <is>
-          <t>24/07/2023 23:59</t>
-        </is>
-      </c>
       <c r="V188" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
         </is>
       </c>
     </row>
@@ -17777,7 +17777,7 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G189" t="n">
@@ -17785,38 +17785,38 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J189" t="n">
-        <v>1.74</v>
+        <v>2.36</v>
       </c>
       <c r="K189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="L189" t="n">
-        <v>1.74</v>
+        <v>2.68</v>
       </c>
       <c r="M189" t="inlineStr">
         <is>
-          <t>24/07/2023 23:30</t>
+          <t>24/07/2023 23:59</t>
         </is>
       </c>
       <c r="N189" t="n">
-        <v>3.43</v>
+        <v>2.95</v>
       </c>
       <c r="O189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="P189" t="n">
-        <v>3.64</v>
+        <v>2.96</v>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
@@ -17824,15 +17824,15 @@
         </is>
       </c>
       <c r="R189" t="n">
-        <v>5.61</v>
+        <v>3.35</v>
       </c>
       <c r="S189" t="inlineStr">
         <is>
-          <t>20/07/2023 02:42</t>
+          <t>20/07/2023 00:12</t>
         </is>
       </c>
       <c r="T189" t="n">
-        <v>5.83</v>
+        <v>3.11</v>
       </c>
       <c r="U189" t="inlineStr">
         <is>
@@ -17841,7 +17841,7 @@
       </c>
       <c r="V189" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-chapecoense-sc/SYW2iUwb/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-botafogo-sp/bXmElSNG/</t>
         </is>
       </c>
     </row>
@@ -19249,71 +19249,71 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N205" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P205" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R205" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19341,7 +19341,7 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G206" t="n">
@@ -19349,26 +19349,26 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.38</v>
+        <v>2.51</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.46</v>
+        <v>2.59</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N206" t="n">
@@ -19376,36 +19376,36 @@
       </c>
       <c r="O206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.51</v>
+        <v>3.26</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.48</v>
+        <v>3.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G207" t="n">
+        <v>2</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I207" t="n">
-        <v>1</v>
-      </c>
       <c r="J207" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19525,22 +19525,22 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -19548,15 +19548,15 @@
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
@@ -19564,15 +19564,15 @@
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
@@ -19580,16 +19580,16 @@
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.68</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:55</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:55</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
         </is>
       </c>
     </row>
@@ -30013,71 +30013,71 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I322" t="n">
         <v>1</v>
       </c>
       <c r="J322" t="n">
-        <v>1.35</v>
+        <v>2.81</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:51</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>4.58</v>
+        <v>2.86</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>4.61</v>
+        <v>2.91</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="R322" t="n">
-        <v>9.109999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="T322" t="n">
-        <v>9.75</v>
+        <v>2.52</v>
       </c>
       <c r="U322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="V322" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
         </is>
       </c>
     </row>
@@ -30105,71 +30105,71 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I323" t="n">
         <v>1</v>
       </c>
       <c r="J323" t="n">
-        <v>2.81</v>
+        <v>1.35</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:51</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>2.86</v>
+        <v>4.58</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>2.91</v>
+        <v>4.61</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="R323" t="n">
-        <v>2.97</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="T323" t="n">
-        <v>2.52</v>
+        <v>9.75</v>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
         </is>
       </c>
     </row>
@@ -30906,6 +30906,98 @@
       <c r="V331" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-ituano/6JfKN7xp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E332" s="2" t="n">
+        <v>45226</v>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="G332" t="n">
+        <v>1</v>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I332" t="n">
+        <v>1</v>
+      </c>
+      <c r="J332" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K332" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L332" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N332" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O332" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P332" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="R332" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S332" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T332" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U332" t="inlineStr">
+        <is>
+          <t>26/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V332" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-avai/lznZzIC0/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V332"/>
+  <dimension ref="A1:V341"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23/04/2023 23:12</t>
+          <t>22/04/2023 21:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>28/04/2023 23:49</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>28/04/2023 23:59</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>28/04/2023 23:49</t>
+          <t>28/04/2023 23:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.21</v>
+        <v>3.45</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.46</v>
+        <v>4.94</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
         </is>
       </c>
     </row>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>2.17</v>
+        <v>1.88</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.22</v>
+        <v>3.35</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.1</v>
+        <v>3.09</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.67</v>
+        <v>4.28</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.54</v>
+        <v>3.63</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:53</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3701,71 +3701,71 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.88</v>
+        <v>2.17</v>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="L36" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>3.35</v>
+        <v>3.22</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="R36" t="n">
-        <v>4.28</v>
+        <v>3.67</v>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 23:42</t>
         </is>
       </c>
       <c r="T36" t="n">
-        <v>3.63</v>
+        <v>3.54</v>
       </c>
       <c r="U36" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:53</t>
         </is>
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-guarani/xU3M1sNg/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>2</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Londrina</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.08</v>
+        <v>3.4</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>4.06</v>
+        <v>3.68</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>2</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
       <c r="J61" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.68</v>
+        <v>4.06</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,63 +7205,63 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7289,30 +7289,30 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>1</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>3</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
@@ -7320,40 +7320,40 @@
         </is>
       </c>
       <c r="N75" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
         <v>3.12</v>
       </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P75" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q75" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -9681,30 +9681,30 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G101" t="n">
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
         <v>1</v>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I101" t="n">
-        <v>2</v>
-      </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>2.37</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.46</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,15 +9712,15 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.03</v>
+        <v>3.05</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.18</v>
+        <v>2.99</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,15 +9728,15 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>3.22</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.2</v>
+        <v>2.92</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9773,30 +9773,30 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
@@ -9804,15 +9804,15 @@
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
@@ -9820,15 +9820,15 @@
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
@@ -9837,7 +9837,7 @@
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9865,7 +9865,7 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G103" t="n">
@@ -9873,14 +9873,14 @@
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I103" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J103" t="n">
-        <v>2.07</v>
+        <v>2.16</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.88</v>
+        <v>2.02</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.37</v>
+        <v>3.21</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.57</v>
+        <v>3.22</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.55</v>
+        <v>3.48</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.47</v>
+        <v>4.35</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>07/06/2023 02:29</t>
+          <t>07/06/2023 02:27</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ceara/xhj6u9SC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ituano/4brh3CKJ/</t>
         </is>
       </c>
     </row>
@@ -9957,7 +9957,7 @@
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G104" t="n">
@@ -9965,14 +9965,14 @@
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J104" t="n">
-        <v>2.16</v>
+        <v>2.07</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -9980,15 +9980,15 @@
         </is>
       </c>
       <c r="L104" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="M104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="N104" t="n">
-        <v>3.21</v>
+        <v>3.37</v>
       </c>
       <c r="O104" t="inlineStr">
         <is>
@@ -9996,15 +9996,15 @@
         </is>
       </c>
       <c r="P104" t="n">
-        <v>3.22</v>
+        <v>3.57</v>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="R104" t="n">
-        <v>3.48</v>
+        <v>3.55</v>
       </c>
       <c r="S104" t="inlineStr">
         <is>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="T104" t="n">
-        <v>4.35</v>
+        <v>4.47</v>
       </c>
       <c r="U104" t="inlineStr">
         <is>
-          <t>07/06/2023 02:27</t>
+          <t>07/06/2023 02:29</t>
         </is>
       </c>
       <c r="V104" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ituano/4brh3CKJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ceara/xhj6u9SC/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -12809,22 +12809,22 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="n">
-        <v>1.68</v>
+        <v>2.81</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.78</v>
+        <v>3.2</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:56</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.9</v>
+        <v>3.04</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.58</v>
+        <v>2.99</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>4.62</v>
+        <v>2.67</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>28/06/2023 23:57</t>
+          <t>28/06/2023 23:59</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
         </is>
       </c>
     </row>
@@ -12901,22 +12901,22 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.81</v>
+        <v>1.68</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -12924,15 +12924,15 @@
         </is>
       </c>
       <c r="L136" t="n">
-        <v>3.2</v>
+        <v>1.78</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:56</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.04</v>
+        <v>3.9</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
@@ -12940,15 +12940,15 @@
         </is>
       </c>
       <c r="P136" t="n">
-        <v>2.99</v>
+        <v>3.58</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.67</v>
+        <v>4.62</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
@@ -12956,16 +12956,16 @@
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.59</v>
+        <v>5.19</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/06/2023 23:59</t>
+          <t>28/06/2023 23:57</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-atletico-go/AFX2FF9q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-avai/d8iSLHWF/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>1</v>
       </c>
       <c r="J137" t="n">
-        <v>1.67</v>
+        <v>2.5</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>1.76</v>
+        <v>3</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.63</v>
+        <v>3.04</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.45</v>
+        <v>2.87</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:27</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>5.82</v>
+        <v>3.02</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>5.59</v>
+        <v>2.85</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>1</v>
       </c>
       <c r="J139" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>3.87</v>
+        <v>5.82</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>4.26</v>
+        <v>5.59</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.5</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,7 +13292,7 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>3</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
@@ -13300,7 +13300,7 @@
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.04</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>2.87</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:27</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.02</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,7 +13324,7 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>2.85</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
@@ -13333,7 +13333,7 @@
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-mirassol/GvgQ1dup/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,63 +13553,63 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I143" t="n">
         <v>2</v>
       </c>
       <c r="J143" t="n">
-        <v>1.99</v>
+        <v>2.48</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.19</v>
+        <v>2.97</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.11</v>
+        <v>3.04</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>4.39</v>
+        <v>3.12</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
-          <t>29/06/2023 00:12</t>
+          <t>29/06/2023 02:42</t>
         </is>
       </c>
       <c r="T143" t="n">
-        <v>4.75</v>
+        <v>4.15</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>01/07/2023 21:58</t>
+          <t>01/07/2023 21:46</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
         </is>
       </c>
     </row>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G144" t="n">
@@ -13645,63 +13645,63 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I144" t="n">
         <v>2</v>
       </c>
       <c r="J144" t="n">
-        <v>2.48</v>
+        <v>1.99</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="L144" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="N144" t="n">
-        <v>2.97</v>
+        <v>3.19</v>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="P144" t="n">
-        <v>3.04</v>
+        <v>3.11</v>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="R144" t="n">
-        <v>3.12</v>
+        <v>4.39</v>
       </c>
       <c r="S144" t="inlineStr">
         <is>
-          <t>29/06/2023 02:42</t>
+          <t>29/06/2023 00:12</t>
         </is>
       </c>
       <c r="T144" t="n">
-        <v>4.15</v>
+        <v>4.75</v>
       </c>
       <c r="U144" t="inlineStr">
         <is>
-          <t>01/07/2023 21:46</t>
+          <t>01/07/2023 21:58</t>
         </is>
       </c>
       <c r="V144" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-criciuma/dUS2YfGL/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-abc/88n8CDg2/</t>
         </is>
       </c>
     </row>
@@ -15661,71 +15661,71 @@
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
         <v>1</v>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
       <c r="J166" t="n">
-        <v>3.53</v>
+        <v>2.01</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L166" t="n">
-        <v>4.33</v>
+        <v>2.2</v>
       </c>
       <c r="M166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="N166" t="n">
-        <v>3.06</v>
+        <v>3.2</v>
       </c>
       <c r="O166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P166" t="n">
-        <v>3.17</v>
+        <v>3.14</v>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="R166" t="n">
-        <v>2.21</v>
+        <v>4.29</v>
       </c>
       <c r="S166" t="inlineStr">
         <is>
-          <t>11/07/2023 01:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T166" t="n">
-        <v>2.05</v>
+        <v>3.83</v>
       </c>
       <c r="U166" t="inlineStr">
         <is>
-          <t>15/07/2023 21:56</t>
+          <t>15/07/2023 21:57</t>
         </is>
       </c>
       <c r="V166" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
       <c r="J167" t="n">
-        <v>2.01</v>
+        <v>3.53</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.2</v>
+        <v>4.33</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.2</v>
+        <v>3.06</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.14</v>
+        <v>3.17</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>4.29</v>
+        <v>2.21</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>11/07/2023 01:11</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>3.83</v>
+        <v>2.05</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>15/07/2023 21:57</t>
+          <t>15/07/2023 21:56</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-tombense/xQXLNbJ0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-vila-nova-fc/QqZdPBf5/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>2</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.05</v>
+        <v>3.51</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.82</v>
+        <v>5.8</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.71</v>
+        <v>5.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16673,7 +16673,7 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G177" t="n">
@@ -16681,63 +16681,63 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>1.69</v>
+        <v>2.58</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>1.74</v>
+        <v>2.69</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.51</v>
+        <v>2.99</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>3.42</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>5.8</v>
+        <v>2.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>5.96</v>
+        <v>3.29</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R200" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -18881,46 +18881,46 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,24 +18928,24 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -19065,71 +19065,71 @@
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J203" t="n">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="K203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="L203" t="n">
-        <v>1.73</v>
+        <v>2.14</v>
       </c>
       <c r="M203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="N203" t="n">
-        <v>3.34</v>
+        <v>3.17</v>
       </c>
       <c r="O203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="P203" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="R203" t="n">
-        <v>5.96</v>
+        <v>3.68</v>
       </c>
       <c r="S203" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 16:12</t>
         </is>
       </c>
       <c r="T203" t="n">
-        <v>6.01</v>
+        <v>4.31</v>
       </c>
       <c r="U203" t="inlineStr">
         <is>
-          <t>02/08/2023 23:59</t>
+          <t>02/08/2023 23:58</t>
         </is>
       </c>
       <c r="V203" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
         </is>
       </c>
     </row>
@@ -19157,71 +19157,71 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G204" t="n">
+        <v>2</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
         <v>1</v>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>Tombense</t>
-        </is>
-      </c>
-      <c r="I204" t="n">
-        <v>0</v>
-      </c>
       <c r="J204" t="n">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="K204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L204" t="n">
-        <v>2.14</v>
+        <v>1.73</v>
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="N204" t="n">
-        <v>3.17</v>
+        <v>3.34</v>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P204" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="R204" t="n">
-        <v>3.68</v>
+        <v>5.96</v>
       </c>
       <c r="S204" t="inlineStr">
         <is>
-          <t>30/07/2023 16:12</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T204" t="n">
-        <v>4.31</v>
+        <v>6.01</v>
       </c>
       <c r="U204" t="inlineStr">
         <is>
-          <t>02/08/2023 23:58</t>
+          <t>02/08/2023 23:59</t>
         </is>
       </c>
       <c r="V204" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-tombense/fNVII6xc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-ponte-preta/tKsyfNad/</t>
         </is>
       </c>
     </row>
@@ -19249,22 +19249,22 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G205" t="n">
+        <v>0</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
         <v>1</v>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I205" t="n">
-        <v>0</v>
-      </c>
       <c r="J205" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
@@ -19272,15 +19272,15 @@
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.46</v>
+        <v>2.31</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
@@ -19288,15 +19288,15 @@
         </is>
       </c>
       <c r="P205" t="n">
-        <v>2.94</v>
+        <v>2.9</v>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.51</v>
+        <v>3.68</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
@@ -19304,16 +19304,16 @@
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.48</v>
+        <v>3.9</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.47</v>
+        <v>2.1</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.78</v>
+        <v>3.08</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>4.23</v>
+        <v>3.18</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>5.67</v>
+        <v>3.79</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>8.199999999999999</v>
+        <v>4.11</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N208" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O208" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P208" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q208" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R208" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
       <c r="J209" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -20905,71 +20905,71 @@
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I223" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="L223" t="n">
-        <v>2.08</v>
+        <v>2.41</v>
       </c>
       <c r="M223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="N223" t="n">
-        <v>3.05</v>
+        <v>3.12</v>
       </c>
       <c r="O223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="P223" t="n">
-        <v>3.01</v>
+        <v>3.04</v>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:55</t>
         </is>
       </c>
       <c r="R223" t="n">
-        <v>3.96</v>
+        <v>3.63</v>
       </c>
       <c r="S223" t="inlineStr">
         <is>
-          <t>06/08/2023 20:42</t>
+          <t>06/08/2023 01:12</t>
         </is>
       </c>
       <c r="T223" t="n">
-        <v>4.5</v>
+        <v>3.44</v>
       </c>
       <c r="U223" t="inlineStr">
         <is>
-          <t>12/08/2023 21:59</t>
+          <t>12/08/2023 21:57</t>
         </is>
       </c>
       <c r="V223" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
         </is>
       </c>
     </row>
@@ -20997,71 +20997,71 @@
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="L224" t="n">
-        <v>2.41</v>
+        <v>2.08</v>
       </c>
       <c r="M224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="N224" t="n">
-        <v>3.12</v>
+        <v>3.05</v>
       </c>
       <c r="O224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="P224" t="n">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
       <c r="Q224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:55</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="R224" t="n">
-        <v>3.63</v>
+        <v>3.96</v>
       </c>
       <c r="S224" t="inlineStr">
         <is>
-          <t>06/08/2023 01:12</t>
+          <t>06/08/2023 20:42</t>
         </is>
       </c>
       <c r="T224" t="n">
-        <v>3.44</v>
+        <v>4.5</v>
       </c>
       <c r="U224" t="inlineStr">
         <is>
-          <t>12/08/2023 21:57</t>
+          <t>12/08/2023 21:59</t>
         </is>
       </c>
       <c r="V224" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-crb/Yo6COY4m/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ponte-preta/zBQyVzSJ/</t>
         </is>
       </c>
     </row>
@@ -30013,71 +30013,71 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I322" t="n">
         <v>1</v>
       </c>
       <c r="J322" t="n">
-        <v>2.81</v>
+        <v>1.35</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:51</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>2.86</v>
+        <v>4.58</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>2.91</v>
+        <v>4.61</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="R322" t="n">
-        <v>2.97</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="T322" t="n">
-        <v>2.52</v>
+        <v>9.75</v>
       </c>
       <c r="U322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="V322" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
         </is>
       </c>
     </row>
@@ -30105,71 +30105,71 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I323" t="n">
         <v>1</v>
       </c>
       <c r="J323" t="n">
-        <v>1.35</v>
+        <v>2.81</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:51</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>4.58</v>
+        <v>2.86</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>4.61</v>
+        <v>2.91</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="R323" t="n">
-        <v>9.109999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="T323" t="n">
-        <v>9.75</v>
+        <v>2.52</v>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
         </is>
       </c>
     </row>
@@ -30998,6 +30998,834 @@
       <c r="V332" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/abc-avai/lznZzIC0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E333" s="2" t="n">
+        <v>45227</v>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="G333" t="n">
+        <v>2</v>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I333" t="n">
+        <v>1</v>
+      </c>
+      <c r="J333" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="K333" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L333" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N333" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="O333" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P333" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:56</t>
+        </is>
+      </c>
+      <c r="R333" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S333" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T333" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U333" t="inlineStr">
+        <is>
+          <t>27/10/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V333" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-sport-recife/KfbMwKSs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E334" s="2" t="n">
+        <v>45227.10416666666</v>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="G334" t="n">
+        <v>0</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
+        <v>1</v>
+      </c>
+      <c r="J334" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K334" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L334" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M334" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:05</t>
+        </is>
+      </c>
+      <c r="N334" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O334" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P334" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q334" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:17</t>
+        </is>
+      </c>
+      <c r="R334" t="n">
+        <v>6.14</v>
+      </c>
+      <c r="S334" t="inlineStr">
+        <is>
+          <t>21/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T334" t="n">
+        <v>6.36</v>
+      </c>
+      <c r="U334" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:24</t>
+        </is>
+      </c>
+      <c r="V334" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E335" s="2" t="n">
+        <v>45227.10416666666</v>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="G335" t="n">
+        <v>2</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
+        <v>0</v>
+      </c>
+      <c r="J335" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K335" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N335" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="O335" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P335" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R335" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="S335" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T335" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="U335" t="inlineStr">
+        <is>
+          <t>28/10/2023 02:28</t>
+        </is>
+      </c>
+      <c r="V335" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E336" s="2" t="n">
+        <v>45227.85416666666</v>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G336" t="n">
+        <v>3</v>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I336" t="n">
+        <v>0</v>
+      </c>
+      <c r="J336" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N336" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O336" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P336" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R336" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="S336" t="inlineStr">
+        <is>
+          <t>21/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T336" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="U336" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V336" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D337" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E337" s="2" t="n">
+        <v>45227.85416666666</v>
+      </c>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G337" t="n">
+        <v>0</v>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I337" t="n">
+        <v>0</v>
+      </c>
+      <c r="J337" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="M337" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="N337" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O337" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P337" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="R337" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S337" t="inlineStr">
+        <is>
+          <t>24/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T337" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="U337" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:24</t>
+        </is>
+      </c>
+      <c r="V337" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E338" s="2" t="n">
+        <v>45228</v>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="G338" t="n">
+        <v>2</v>
+      </c>
+      <c r="H338" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="I338" t="n">
+        <v>1</v>
+      </c>
+      <c r="J338" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:57</t>
+        </is>
+      </c>
+      <c r="N338" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O338" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P338" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q338" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:57</t>
+        </is>
+      </c>
+      <c r="R338" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S338" t="inlineStr">
+        <is>
+          <t>22/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T338" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U338" t="inlineStr">
+        <is>
+          <t>28/10/2023 23:57</t>
+        </is>
+      </c>
+      <c r="V338" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-atletico-go/KdkbZ4yd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E339" s="2" t="n">
+        <v>45228.9375</v>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="G339" t="n">
+        <v>1</v>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I339" t="n">
+        <v>1</v>
+      </c>
+      <c r="J339" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:24</t>
+        </is>
+      </c>
+      <c r="N339" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="O339" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P339" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:23</t>
+        </is>
+      </c>
+      <c r="R339" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S339" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T339" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U339" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:24</t>
+        </is>
+      </c>
+      <c r="V339" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-crb/tAnVybcf/</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E340" s="2" t="n">
+        <v>45228.95833333334</v>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G340" t="n">
+        <v>0</v>
+      </c>
+      <c r="H340" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I340" t="n">
+        <v>0</v>
+      </c>
+      <c r="J340" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>2</v>
+      </c>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:30</t>
+        </is>
+      </c>
+      <c r="N340" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O340" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P340" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q340" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:30</t>
+        </is>
+      </c>
+      <c r="R340" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="S340" t="inlineStr">
+        <is>
+          <t>23/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T340" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="U340" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:30</t>
+        </is>
+      </c>
+      <c r="V340" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-esporte-clube-juventude/8IVhenbF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E341" s="2" t="n">
+        <v>45230</v>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="G341" t="n">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I341" t="n">
+        <v>2</v>
+      </c>
+      <c r="J341" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M341" t="inlineStr">
+        <is>
+          <t>30/10/2023 23:57</t>
+        </is>
+      </c>
+      <c r="N341" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O341" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P341" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q341" t="inlineStr">
+        <is>
+          <t>30/10/2023 23:51</t>
+        </is>
+      </c>
+      <c r="R341" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S341" t="inlineStr">
+        <is>
+          <t>22/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T341" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U341" t="inlineStr">
+        <is>
+          <t>30/10/2023 23:57</t>
+        </is>
+      </c>
+      <c r="V341" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-tombense/2JmRxvrl/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V341"/>
+  <dimension ref="A1:V342"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9681,30 +9681,30 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,15 +9712,15 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,15 +9728,15 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,40 +16796,40 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,42 +16857,42 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -16900,28 +16900,28 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18789,46 +18789,46 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -18836,24 +18836,24 @@
         </is>
       </c>
       <c r="R200" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -18881,71 +18881,71 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R201" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -19249,42 +19249,42 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -19292,28 +19292,28 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.68</v>
+        <v>3.26</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N207" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R207" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.46</v>
+        <v>1.47</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.96</v>
+        <v>3.78</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.51</v>
+        <v>5.67</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.68</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -22048,32 +22048,32 @@
         </is>
       </c>
       <c r="P235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q235" t="inlineStr">
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U235" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R235" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T235" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,31 +22132,31 @@
         </is>
       </c>
       <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
         <v>2.95</v>
       </c>
-      <c r="O236" t="inlineStr">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S236" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P236" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R236" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T236" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -31826,6 +31826,98 @@
       <c r="V341" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-tombense/2JmRxvrl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E342" s="2" t="n">
+        <v>45232</v>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="G342" t="n">
+        <v>2</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I342" t="n">
+        <v>2</v>
+      </c>
+      <c r="J342" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M342" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N342" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O342" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P342" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q342" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:58</t>
+        </is>
+      </c>
+      <c r="R342" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="S342" t="inlineStr">
+        <is>
+          <t>29/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T342" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U342" t="inlineStr">
+        <is>
+          <t>01/11/2023 23:59</t>
+        </is>
+      </c>
+      <c r="V342" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-novorizontino/AkzrZesD/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V342"/>
+  <dimension ref="A1:V345"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4161,30 +4161,30 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
@@ -4192,15 +4192,15 @@
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
@@ -4208,15 +4208,15 @@
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
@@ -4225,7 +4225,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>2.46</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.46</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.74</v>
+        <v>3.18</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.08</v>
+        <v>3.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>7.21</v>
+        <v>3.2</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G138" t="n">
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
         <v>1</v>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I138" t="n">
-        <v>2</v>
-      </c>
       <c r="J138" t="n">
-        <v>2.98</v>
+        <v>2.17</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.99</v>
+        <v>2.09</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.03</v>
+        <v>3.11</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>2.59</v>
+        <v>3.87</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>2.72</v>
+        <v>4.26</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>2</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>1</v>
-      </c>
       <c r="J139" t="n">
-        <v>1.67</v>
+        <v>2.98</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>1.76</v>
+        <v>2.99</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.63</v>
+        <v>2.96</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.45</v>
+        <v>3.03</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>5.82</v>
+        <v>2.59</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>5.59</v>
+        <v>2.72</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>2.17</v>
+        <v>1.67</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>2.09</v>
+        <v>1.76</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.08</v>
+        <v>3.63</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.11</v>
+        <v>3.45</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.87</v>
+        <v>5.82</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>4.26</v>
+        <v>5.59</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J174" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J175" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>5.8</v>
+        <v>3.82</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>5.96</v>
+        <v>4.71</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R177" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T177" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -25781,46 +25781,46 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -25828,15 +25828,15 @@
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N277" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P277" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q277" t="inlineStr">
+      <c r="R277" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U277" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T277" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U277" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -30013,71 +30013,71 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I322" t="n">
         <v>1</v>
       </c>
       <c r="J322" t="n">
-        <v>1.35</v>
+        <v>2.81</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:51</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>4.58</v>
+        <v>2.86</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>4.61</v>
+        <v>2.91</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="R322" t="n">
-        <v>9.109999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="T322" t="n">
-        <v>9.75</v>
+        <v>2.52</v>
       </c>
       <c r="U322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="V322" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
         </is>
       </c>
     </row>
@@ -30105,71 +30105,71 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I323" t="n">
         <v>1</v>
       </c>
       <c r="J323" t="n">
-        <v>2.81</v>
+        <v>1.35</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:51</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>2.86</v>
+        <v>4.58</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>2.91</v>
+        <v>4.61</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="R323" t="n">
-        <v>2.97</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="T323" t="n">
-        <v>2.52</v>
+        <v>9.75</v>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
         </is>
       </c>
     </row>
@@ -31117,71 +31117,71 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G334" t="n">
+        <v>2</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>Botafogo SP</t>
-        </is>
-      </c>
-      <c r="I334" t="n">
-        <v>1</v>
-      </c>
       <c r="J334" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L334" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:05</t>
+          <t>28/10/2023 02:21</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>3.41</v>
+        <v>3.81</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>3.43</v>
+        <v>4.57</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:17</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="R334" t="n">
-        <v>6.14</v>
+        <v>6.57</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T334" t="n">
-        <v>6.36</v>
+        <v>10.13</v>
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:24</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="V334" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
         </is>
       </c>
     </row>
@@ -31209,71 +31209,71 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:21</t>
+          <t>28/10/2023 02:05</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>4.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:17</t>
         </is>
       </c>
       <c r="R335" t="n">
-        <v>6.57</v>
+        <v>6.14</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T335" t="n">
-        <v>10.13</v>
+        <v>6.36</v>
       </c>
       <c r="U335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:24</t>
         </is>
       </c>
       <c r="V335" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
         </is>
       </c>
     </row>
@@ -31301,71 +31301,71 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>1.58</v>
+        <v>3.71</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="R336" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T336" t="n">
-        <v>7.22</v>
+        <v>2.39</v>
       </c>
       <c r="U336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="V336" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
         </is>
       </c>
     </row>
@@ -31393,71 +31393,71 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>3.08</v>
+        <v>1.7</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>3.71</v>
+        <v>1.58</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>2.9</v>
+        <v>3.72</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="R337" t="n">
-        <v>2.57</v>
+        <v>5.95</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="T337" t="n">
-        <v>2.39</v>
+        <v>7.22</v>
       </c>
       <c r="U337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="V337" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
         </is>
       </c>
     </row>
@@ -31918,6 +31918,282 @@
       <c r="V342" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-novorizontino/AkzrZesD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E343" s="2" t="n">
+        <v>45233.95833333334</v>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="G343" t="n">
+        <v>2</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="I343" t="n">
+        <v>1</v>
+      </c>
+      <c r="J343" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M343" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:54</t>
+        </is>
+      </c>
+      <c r="N343" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O343" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="P343" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q343" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R343" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S343" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:43</t>
+        </is>
+      </c>
+      <c r="T343" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U343" t="inlineStr">
+        <is>
+          <t>03/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V343" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-sport-recife/GnRXeJlQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E344" s="2" t="n">
+        <v>45234.0625</v>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="G344" t="n">
+        <v>0</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I344" t="n">
+        <v>0</v>
+      </c>
+      <c r="J344" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M344" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N344" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O344" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P344" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q344" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="R344" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S344" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T344" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U344" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="V344" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D345" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E345" s="2" t="n">
+        <v>45234.0625</v>
+      </c>
+      <c r="F345" t="inlineStr">
+        <is>
+          <t>Juventude</t>
+        </is>
+      </c>
+      <c r="G345" t="n">
+        <v>2</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>1</v>
+      </c>
+      <c r="J345" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="R345" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>29/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T345" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:22</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V345"/>
+  <dimension ref="A1:V348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.37</v>
+        <v>1.7</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.81</v>
+        <v>1.58</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.05</v>
+        <v>3.56</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.99</v>
+        <v>3.74</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.22</v>
+        <v>5.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.92</v>
+        <v>7.21</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9681,7 +9681,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G101" t="n">
@@ -9689,63 +9689,63 @@
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -13085,71 +13085,71 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J138" t="n">
-        <v>2.17</v>
+        <v>2.98</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>2.09</v>
+        <v>2.99</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>3.11</v>
+        <v>3.03</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:18</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.87</v>
+        <v>2.59</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>22/06/2023 02:42</t>
+          <t>23/06/2023 02:42</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>4.26</v>
+        <v>2.72</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>29/06/2023 02:28</t>
+          <t>29/06/2023 02:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
         </is>
       </c>
     </row>
@@ -13177,71 +13177,71 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
         <v>1</v>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I139" t="n">
-        <v>2</v>
-      </c>
       <c r="J139" t="n">
-        <v>2.98</v>
+        <v>1.67</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.99</v>
+        <v>1.76</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>2.96</v>
+        <v>3.63</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.03</v>
+        <v>3.45</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:18</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.59</v>
+        <v>5.82</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
-          <t>23/06/2023 02:42</t>
+          <t>22/06/2023 09:13</t>
         </is>
       </c>
       <c r="T139" t="n">
-        <v>2.72</v>
+        <v>5.59</v>
       </c>
       <c r="U139" t="inlineStr">
         <is>
-          <t>29/06/2023 02:22</t>
+          <t>29/06/2023 02:29</t>
         </is>
       </c>
       <c r="V139" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-esporte-clube-juventude/hzoyKe1S/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
         </is>
       </c>
     </row>
@@ -13269,71 +13269,71 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I140" t="n">
         <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.67</v>
+        <v>2.17</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.76</v>
+        <v>2.09</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.63</v>
+        <v>3.08</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>5.82</v>
+        <v>3.87</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
-          <t>22/06/2023 09:13</t>
+          <t>22/06/2023 02:42</t>
         </is>
       </c>
       <c r="T140" t="n">
-        <v>5.59</v>
+        <v>4.26</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>29/06/2023 02:29</t>
+          <t>29/06/2023 02:28</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-sampaio-correa/IHhOMcH9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-ponte-preta/AikGOJnc/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>1</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>2</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Sampaio Correa</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.2</v>
+        <v>1.69</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.05</v>
+        <v>1.74</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.05</v>
+        <v>3.51</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.98</v>
+        <v>3.42</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.82</v>
+        <v>5.8</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>4.71</v>
+        <v>5.96</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -16673,42 +16673,42 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P177" t="n">
@@ -16716,28 +16716,28 @@
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J178" t="n">
-        <v>1.69</v>
+        <v>2.2</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>1.74</v>
+        <v>2.05</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.51</v>
+        <v>3.05</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>3.42</v>
+        <v>2.98</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:54</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>5.8</v>
+        <v>3.82</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>5.96</v>
+        <v>4.71</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16857,42 +16857,42 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>1</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Vila Nova FC</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.69</v>
+        <v>2.6</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.99</v>
+        <v>2.85</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -16900,28 +16900,28 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:26</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>2.95</v>
+        <v>3.08</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R200" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -18881,46 +18881,46 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,24 +18928,24 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -19249,42 +19249,42 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -19292,28 +19292,28 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.31</v>
+        <v>3.9</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>3.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
+          <t>03/08/2023 02:24</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="R207" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>30/07/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T207" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U207" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:21</t>
-        </is>
-      </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4.23</v>
+        <v>2.94</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>5.67</v>
+        <v>3.51</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>8.199999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
       <c r="J209" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,31 +22040,31 @@
         </is>
       </c>
       <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>2.95</v>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S235" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P235" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T235" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,32 +22140,32 @@
         </is>
       </c>
       <c r="P236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q236" t="inlineStr">
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U236" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R236" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T236" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N276" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q276" t="inlineStr">
+      <c r="R276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U276" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -25873,46 +25873,46 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -25920,15 +25920,15 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J284" t="n">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="N284" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P284" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R284" t="n">
         <v>3.2</v>
       </c>
-      <c r="O284" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P284" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q284" t="inlineStr">
-        <is>
-          <t>23/09/2023 01:50</t>
-        </is>
-      </c>
-      <c r="R284" t="n">
-        <v>4.5</v>
-      </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J285" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="N285" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="P285" t="n">
-        <v>3.07</v>
+        <v>3.26</v>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:50</t>
         </is>
       </c>
       <c r="R285" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -32037,71 +32037,71 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>2.84</v>
+        <v>1.77</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>2.72</v>
+        <v>3.34</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>2.99</v>
+        <v>5.52</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="T344" t="n">
-        <v>2.85</v>
+        <v>5.27</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:22</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
         </is>
       </c>
     </row>
@@ -32129,71 +32129,347 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G345" t="n">
+        <v>0</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I345" t="n">
+        <v>0</v>
+      </c>
+      <c r="J345" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="M345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N345" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="O345" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="P345" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="R345" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S345" t="inlineStr">
+        <is>
+          <t>29/10/2023 22:42</t>
+        </is>
+      </c>
+      <c r="T345" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U345" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="V345" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D346" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E346" s="2" t="n">
+        <v>45234.875</v>
+      </c>
+      <c r="F346" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="G346" t="n">
+        <v>0</v>
+      </c>
+      <c r="H346" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="I346" t="n">
+        <v>1</v>
+      </c>
+      <c r="J346" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M346" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:45</t>
+        </is>
+      </c>
+      <c r="N346" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O346" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P346" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q346" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R346" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="S346" t="inlineStr">
+        <is>
+          <t>29/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T346" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U346" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:45</t>
+        </is>
+      </c>
+      <c r="V346" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-avai/SQpwzxS6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D347" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E347" s="2" t="n">
+        <v>45234.875</v>
+      </c>
+      <c r="F347" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="G347" t="n">
         <v>2</v>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>Ituano</t>
-        </is>
-      </c>
-      <c r="I345" t="n">
+      <c r="H347" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I347" t="n">
+        <v>2</v>
+      </c>
+      <c r="J347" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>29/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="M347" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N347" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O347" t="inlineStr">
+        <is>
+          <t>29/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="P347" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q347" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R347" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S347" t="inlineStr">
+        <is>
+          <t>29/10/2023 04:42</t>
+        </is>
+      </c>
+      <c r="T347" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="U347" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V347" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ceara/xdSTdaZJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D348" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E348" s="2" t="n">
+        <v>45234.97916666666</v>
+      </c>
+      <c r="F348" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="G348" t="n">
         <v>1</v>
       </c>
-      <c r="J345" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>29/10/2023 23:12</t>
-        </is>
-      </c>
-      <c r="L345" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="M345" t="inlineStr">
-        <is>
-          <t>04/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="N345" t="n">
-        <v>3.34</v>
-      </c>
-      <c r="O345" t="inlineStr">
-        <is>
-          <t>29/10/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P345" t="n">
-        <v>3.33</v>
-      </c>
-      <c r="Q345" t="inlineStr">
-        <is>
-          <t>04/11/2023 01:12</t>
-        </is>
-      </c>
-      <c r="R345" t="n">
-        <v>5.52</v>
-      </c>
-      <c r="S345" t="inlineStr">
-        <is>
-          <t>29/10/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T345" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="U345" t="inlineStr">
-        <is>
-          <t>04/11/2023 01:22</t>
-        </is>
-      </c>
-      <c r="V345" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
+      <c r="H348" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="I348" t="n">
+        <v>2</v>
+      </c>
+      <c r="J348" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M348" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:27</t>
+        </is>
+      </c>
+      <c r="N348" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O348" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P348" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q348" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:26</t>
+        </is>
+      </c>
+      <c r="R348" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="S348" t="inlineStr">
+        <is>
+          <t>31/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T348" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U348" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:27</t>
+        </is>
+      </c>
+      <c r="V348" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-tombense/zX74jcCm/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V348"/>
+  <dimension ref="A1:V349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26517,71 +26517,71 @@
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G284" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2.61</v>
+        <v>1.96</v>
       </c>
       <c r="K284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="L284" t="n">
-        <v>2.32</v>
+        <v>1.91</v>
       </c>
       <c r="M284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="N284" t="n">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="O284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="P284" t="n">
-        <v>3.07</v>
+        <v>3.26</v>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:50</t>
         </is>
       </c>
       <c r="R284" t="n">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="S284" t="inlineStr">
         <is>
-          <t>19/09/2023 10:42</t>
+          <t>16/09/2023 21:12</t>
         </is>
       </c>
       <c r="T284" t="n">
-        <v>3.63</v>
+        <v>4.88</v>
       </c>
       <c r="U284" t="inlineStr">
         <is>
-          <t>23/09/2023 02:28</t>
+          <t>23/09/2023 01:54</t>
         </is>
       </c>
       <c r="V284" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
         </is>
       </c>
     </row>
@@ -26609,71 +26609,71 @@
       </c>
       <c r="F285" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G285" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J285" t="n">
-        <v>1.96</v>
+        <v>2.61</v>
       </c>
       <c r="K285" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="L285" t="n">
-        <v>1.91</v>
+        <v>2.32</v>
       </c>
       <c r="M285" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="N285" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>19/09/2023 10:42</t>
+        </is>
+      </c>
+      <c r="P285" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>23/09/2023 02:28</t>
+        </is>
+      </c>
+      <c r="R285" t="n">
         <v>3.2</v>
       </c>
-      <c r="O285" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P285" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q285" t="inlineStr">
-        <is>
-          <t>23/09/2023 01:50</t>
-        </is>
-      </c>
-      <c r="R285" t="n">
-        <v>4.5</v>
-      </c>
       <c r="S285" t="inlineStr">
         <is>
-          <t>16/09/2023 21:12</t>
+          <t>19/09/2023 10:42</t>
         </is>
       </c>
       <c r="T285" t="n">
-        <v>4.88</v>
+        <v>3.63</v>
       </c>
       <c r="U285" t="inlineStr">
         <is>
-          <t>23/09/2023 01:54</t>
+          <t>23/09/2023 02:28</t>
         </is>
       </c>
       <c r="V285" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-criciuma/tGTIlst7/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-vitoria/8ML4CpYD/</t>
         </is>
       </c>
     </row>
@@ -27713,71 +27713,71 @@
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I297" t="n">
         <v>1</v>
       </c>
       <c r="J297" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="K297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="L297" t="n">
-        <v>1.94</v>
+        <v>2.48</v>
       </c>
       <c r="M297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="N297" t="n">
-        <v>3.02</v>
+        <v>2.86</v>
       </c>
       <c r="O297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="P297" t="n">
-        <v>3.07</v>
+        <v>2.92</v>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:50</t>
+          <t>30/09/2023 21:00</t>
         </is>
       </c>
       <c r="R297" t="n">
-        <v>4.7</v>
+        <v>3.61</v>
       </c>
       <c r="S297" t="inlineStr">
         <is>
-          <t>23/09/2023 22:12</t>
+          <t>26/09/2023 01:12</t>
         </is>
       </c>
       <c r="T297" t="n">
-        <v>5.15</v>
+        <v>3.47</v>
       </c>
       <c r="U297" t="inlineStr">
         <is>
-          <t>30/09/2023 21:58</t>
+          <t>30/09/2023 21:57</t>
         </is>
       </c>
       <c r="V297" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
         </is>
       </c>
     </row>
@@ -27805,71 +27805,71 @@
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I298" t="n">
         <v>1</v>
       </c>
       <c r="J298" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="K298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="L298" t="n">
-        <v>2.48</v>
+        <v>1.94</v>
       </c>
       <c r="M298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="N298" t="n">
-        <v>2.86</v>
+        <v>3.02</v>
       </c>
       <c r="O298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="P298" t="n">
-        <v>2.92</v>
+        <v>3.07</v>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:00</t>
+          <t>30/09/2023 21:50</t>
         </is>
       </c>
       <c r="R298" t="n">
-        <v>3.61</v>
+        <v>4.7</v>
       </c>
       <c r="S298" t="inlineStr">
         <is>
-          <t>26/09/2023 01:12</t>
+          <t>23/09/2023 22:12</t>
         </is>
       </c>
       <c r="T298" t="n">
-        <v>3.47</v>
+        <v>5.15</v>
       </c>
       <c r="U298" t="inlineStr">
         <is>
-          <t>30/09/2023 21:57</t>
+          <t>30/09/2023 21:58</t>
         </is>
       </c>
       <c r="V298" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-novorizontino/bDFl20A6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-botafogo-sp/6HL48yXu/</t>
         </is>
       </c>
     </row>
@@ -32221,71 +32221,71 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G346" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I346" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J346" t="n">
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:45</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="N346" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:38</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="R346" t="n">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="T346" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="U346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:45</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="V346" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-avai/SQpwzxS6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ceara/xdSTdaZJ/</t>
         </is>
       </c>
     </row>
@@ -32313,71 +32313,71 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J347" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:45</t>
         </is>
       </c>
       <c r="N347" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:38</t>
         </is>
       </c>
       <c r="R347" t="n">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="T347" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="U347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:45</t>
         </is>
       </c>
       <c r="V347" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ceara/xdSTdaZJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-avai/SQpwzxS6/</t>
         </is>
       </c>
     </row>
@@ -32470,6 +32470,98 @@
       <c r="V348" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-tombense/zX74jcCm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D349" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E349" s="2" t="n">
+        <v>45235.91666666666</v>
+      </c>
+      <c r="F349" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="G349" t="n">
+        <v>1</v>
+      </c>
+      <c r="H349" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I349" t="n">
+        <v>1</v>
+      </c>
+      <c r="J349" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M349" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N349" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="O349" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P349" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q349" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R349" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="S349" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T349" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="U349" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V349" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-vila-nova-fc/dt90iwcs/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V349"/>
+  <dimension ref="A1:V351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.16</v>
+        <v>4.55</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>2.5</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>3.12</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.39</v>
+        <v>3.35</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.98</v>
+        <v>3.1</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.65</v>
+        <v>3.7</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.1</v>
+        <v>4.98</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.7</v>
+        <v>5.65</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -9589,7 +9589,7 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G100" t="n">
@@ -9597,63 +9597,63 @@
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -9681,30 +9681,30 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J101" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
@@ -9712,15 +9712,15 @@
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
@@ -9728,15 +9728,15 @@
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9773,71 +9773,71 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -16397,30 +16397,30 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>1.45</v>
+        <v>2.28</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>1.5</v>
+        <v>2.27</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
@@ -16428,40 +16428,40 @@
         </is>
       </c>
       <c r="N174" t="n">
-        <v>4.06</v>
+        <v>3.13</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>4.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:57</t>
         </is>
       </c>
       <c r="R174" t="n">
-        <v>7.52</v>
+        <v>3.31</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>8.199999999999999</v>
+        <v>3.67</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/07/2023 23:58</t>
+          <t>19/07/2023 23:54</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
         </is>
       </c>
     </row>
@@ -16489,30 +16489,30 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.28</v>
+        <v>1.45</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.27</v>
+        <v>1.5</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
@@ -16520,40 +16520,40 @@
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.13</v>
+        <v>4.06</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.12</v>
+        <v>4.02</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:57</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>3.31</v>
+        <v>7.52</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>3.67</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/07/2023 23:54</t>
+          <t>19/07/2023 23:58</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-mirassol/GYR9M9vO/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-londrina/YkdOuXvn/</t>
         </is>
       </c>
     </row>
@@ -16673,71 +16673,71 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
       <c r="J177" t="n">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.69</v>
+        <v>2.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.99</v>
+        <v>3.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>2.95</v>
+        <v>3.82</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>16/07/2023 20:42</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.29</v>
+        <v>4.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:25</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16765,30 +16765,30 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J178" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
@@ -16796,40 +16796,40 @@
         </is>
       </c>
       <c r="N178" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R178" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S178" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T178" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U178" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16857,42 +16857,42 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I179" t="n">
-        <v>1</v>
-      </c>
       <c r="J179" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.6</v>
+        <v>2.69</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>2.85</v>
+        <v>2.99</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="P179" t="n">
@@ -16900,28 +16900,28 @@
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.08</v>
+        <v>2.95</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 20:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 02:25</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-vila-nova-fc/63fWwB9b/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J194" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18789,46 +18789,46 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N200" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P200" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
@@ -18836,24 +18836,24 @@
         </is>
       </c>
       <c r="R200" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -18881,71 +18881,71 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O201" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P201" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q201" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R201" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -19249,42 +19249,42 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.3</v>
+        <v>2.51</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.31</v>
+        <v>2.59</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.97</v>
+        <v>2.96</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -19292,28 +19292,28 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.68</v>
+        <v>3.26</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.9</v>
+        <v>3.31</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J206" t="n">
-        <v>2.51</v>
+        <v>2.2</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.59</v>
+        <v>2.1</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>2.9</v>
+        <v>3.18</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:24</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.26</v>
+        <v>3.79</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>3.31</v>
+        <v>4.11</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.1</v>
+        <v>2.46</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
+          <t>03/08/2023 02:21</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>30/07/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="N207" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="O207" t="inlineStr">
-        <is>
-          <t>29/07/2023 22:12</t>
-        </is>
-      </c>
-      <c r="P207" t="n">
-        <v>3.18</v>
-      </c>
-      <c r="Q207" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:24</t>
-        </is>
-      </c>
       <c r="R207" t="n">
-        <v>3.79</v>
+        <v>3.51</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>4.11</v>
+        <v>3.48</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>2.38</v>
+        <v>1.6</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>2.46</v>
+        <v>1.47</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>2.96</v>
+        <v>3.78</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>2.94</v>
+        <v>4.23</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>3.51</v>
+        <v>5.67</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>3.48</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" t="n">
-        <v>1.6</v>
+        <v>2.3</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>1.47</v>
+        <v>2.31</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>3.78</v>
+        <v>2.97</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>4.23</v>
+        <v>2.9</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>5.67</v>
+        <v>3.68</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>8.199999999999999</v>
+        <v>3.9</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19893,71 +19893,71 @@
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="n">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="L212" t="n">
-        <v>1.78</v>
+        <v>2.77</v>
       </c>
       <c r="M212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="N212" t="n">
-        <v>3.14</v>
+        <v>3.06</v>
       </c>
       <c r="O212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="P212" t="n">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:56</t>
+          <t>05/08/2023 21:50</t>
         </is>
       </c>
       <c r="R212" t="n">
-        <v>4.54</v>
+        <v>3.02</v>
       </c>
       <c r="S212" t="inlineStr">
         <is>
-          <t>02/08/2023 02:41</t>
+          <t>03/08/2023 02:42</t>
         </is>
       </c>
       <c r="T212" t="n">
-        <v>5.51</v>
+        <v>3.15</v>
       </c>
       <c r="U212" t="inlineStr">
         <is>
-          <t>05/08/2023 21:55</t>
+          <t>05/08/2023 21:57</t>
         </is>
       </c>
       <c r="V212" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
         </is>
       </c>
     </row>
@@ -19985,71 +19985,71 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" t="n">
-        <v>2.48</v>
+        <v>1.98</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="L213" t="n">
-        <v>2.77</v>
+        <v>1.78</v>
       </c>
       <c r="M213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="N213" t="n">
-        <v>3.06</v>
+        <v>3.14</v>
       </c>
       <c r="O213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="P213" t="n">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:50</t>
+          <t>05/08/2023 21:56</t>
         </is>
       </c>
       <c r="R213" t="n">
-        <v>3.02</v>
+        <v>4.54</v>
       </c>
       <c r="S213" t="inlineStr">
         <is>
-          <t>03/08/2023 02:42</t>
+          <t>02/08/2023 02:41</t>
         </is>
       </c>
       <c r="T213" t="n">
-        <v>3.15</v>
+        <v>5.51</v>
       </c>
       <c r="U213" t="inlineStr">
         <is>
-          <t>05/08/2023 21:57</t>
+          <t>05/08/2023 21:55</t>
         </is>
       </c>
       <c r="V213" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-guarani/lf2fIcrE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-botafogo-sp/lIps9g50/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J235" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,7 +22040,7 @@
         </is>
       </c>
       <c r="N235" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O235" t="inlineStr">
         <is>
@@ -22048,32 +22048,32 @@
         </is>
       </c>
       <c r="P235" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q235" t="inlineStr">
+      <c r="S235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T235" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U235" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R235" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T235" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J236" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,31 +22132,31 @@
         </is>
       </c>
       <c r="N236" t="n">
+        <v>3</v>
+      </c>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P236" t="n">
         <v>2.95</v>
       </c>
-      <c r="O236" t="inlineStr">
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S236" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P236" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R236" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T236" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U236" t="inlineStr">
         <is>
@@ -22165,7 +22165,7 @@
       </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -31117,71 +31117,71 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L334" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:21</t>
+          <t>28/10/2023 02:05</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:17</t>
         </is>
       </c>
       <c r="R334" t="n">
-        <v>6.57</v>
+        <v>6.14</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T334" t="n">
-        <v>10.13</v>
+        <v>6.36</v>
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:24</t>
         </is>
       </c>
       <c r="V334" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
         </is>
       </c>
     </row>
@@ -31209,71 +31209,71 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G335" t="n">
+        <v>2</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>Botafogo SP</t>
-        </is>
-      </c>
-      <c r="I335" t="n">
-        <v>1</v>
-      </c>
       <c r="J335" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:05</t>
+          <t>28/10/2023 02:21</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>3.41</v>
+        <v>3.81</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3.43</v>
+        <v>4.57</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:17</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="R335" t="n">
-        <v>6.14</v>
+        <v>6.57</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T335" t="n">
-        <v>6.36</v>
+        <v>10.13</v>
       </c>
       <c r="U335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:24</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="V335" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
         </is>
       </c>
     </row>
@@ -31301,71 +31301,71 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>3.08</v>
+        <v>1.7</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>3.71</v>
+        <v>1.58</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>2.9</v>
+        <v>3.72</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="R336" t="n">
-        <v>2.57</v>
+        <v>5.95</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="T336" t="n">
-        <v>2.39</v>
+        <v>7.22</v>
       </c>
       <c r="U336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="V336" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
         </is>
       </c>
     </row>
@@ -31393,71 +31393,71 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>1.58</v>
+        <v>3.71</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="R337" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T337" t="n">
-        <v>7.22</v>
+        <v>2.39</v>
       </c>
       <c r="U337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="V337" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
         </is>
       </c>
     </row>
@@ -32562,6 +32562,190 @@
       <c r="V349" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-vila-nova-fc/dt90iwcs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D350" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E350" s="2" t="n">
+        <v>45237.95833333334</v>
+      </c>
+      <c r="F350" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="G350" t="n">
+        <v>3</v>
+      </c>
+      <c r="H350" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="I350" t="n">
+        <v>2</v>
+      </c>
+      <c r="J350" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M350" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="N350" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O350" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="P350" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q350" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R350" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="S350" t="inlineStr">
+        <is>
+          <t>01/11/2023 10:43</t>
+        </is>
+      </c>
+      <c r="T350" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U350" t="inlineStr">
+        <is>
+          <t>07/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V350" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-chapecoense-sc/A3FGmed6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D351" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E351" s="2" t="n">
+        <v>45238.0625</v>
+      </c>
+      <c r="F351" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="G351" t="n">
+        <v>1</v>
+      </c>
+      <c r="H351" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I351" t="n">
+        <v>0</v>
+      </c>
+      <c r="J351" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="M351" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N351" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="O351" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P351" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="Q351" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="R351" t="n">
+        <v>8.57</v>
+      </c>
+      <c r="S351" t="inlineStr">
+        <is>
+          <t>04/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T351" t="n">
+        <v>12.89</v>
+      </c>
+      <c r="U351" t="inlineStr">
+        <is>
+          <t>08/11/2023 01:28</t>
+        </is>
+      </c>
+      <c r="V351" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-abc/OhvnYFdJ/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V351"/>
+  <dimension ref="A1:V353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7105,62 +7105,62 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N73" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
         <v>3.35</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.5</v>
+        <v>1.84</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.15</v>
+        <v>1.77</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.12</v>
+        <v>3.32</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.35</v>
+        <v>3.39</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.1</v>
+        <v>4.98</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.7</v>
+        <v>5.65</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -31117,71 +31117,71 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G334" t="n">
+        <v>2</v>
+      </c>
+      <c r="H334" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>Botafogo SP</t>
-        </is>
-      </c>
-      <c r="I334" t="n">
-        <v>1</v>
-      </c>
       <c r="J334" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L334" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:05</t>
+          <t>28/10/2023 02:21</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>3.41</v>
+        <v>3.81</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>3.43</v>
+        <v>4.57</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:17</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="R334" t="n">
-        <v>6.14</v>
+        <v>6.57</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T334" t="n">
-        <v>6.36</v>
+        <v>10.13</v>
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:24</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="V334" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
         </is>
       </c>
     </row>
@@ -31209,71 +31209,71 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H335" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I335" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:21</t>
+          <t>28/10/2023 02:05</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>4.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:17</t>
         </is>
       </c>
       <c r="R335" t="n">
-        <v>6.57</v>
+        <v>6.14</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T335" t="n">
-        <v>10.13</v>
+        <v>6.36</v>
       </c>
       <c r="U335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:24</t>
         </is>
       </c>
       <c r="V335" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
         </is>
       </c>
     </row>
@@ -31301,71 +31301,71 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>1.58</v>
+        <v>3.71</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="R336" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T336" t="n">
-        <v>7.22</v>
+        <v>2.39</v>
       </c>
       <c r="U336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="V336" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
         </is>
       </c>
     </row>
@@ -31393,71 +31393,71 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>3.08</v>
+        <v>1.7</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>3.71</v>
+        <v>1.58</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>2.9</v>
+        <v>3.72</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="R337" t="n">
-        <v>2.57</v>
+        <v>5.95</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="T337" t="n">
-        <v>2.39</v>
+        <v>7.22</v>
       </c>
       <c r="U337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="V337" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
         </is>
       </c>
     </row>
@@ -32746,6 +32746,190 @@
       <c r="V351" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-abc/OhvnYFdJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D352" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E352" s="2" t="n">
+        <v>45240.95833333334</v>
+      </c>
+      <c r="F352" t="inlineStr">
+        <is>
+          <t>Vila Nova FC</t>
+        </is>
+      </c>
+      <c r="G352" t="n">
+        <v>4</v>
+      </c>
+      <c r="H352" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I352" t="n">
+        <v>1</v>
+      </c>
+      <c r="J352" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M352" t="inlineStr">
+        <is>
+          <t>10/11/2023 22:54</t>
+        </is>
+      </c>
+      <c r="N352" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="O352" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P352" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="Q352" t="inlineStr">
+        <is>
+          <t>10/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="R352" t="n">
+        <v>7.43</v>
+      </c>
+      <c r="S352" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T352" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="U352" t="inlineStr">
+        <is>
+          <t>10/11/2023 22:58</t>
+        </is>
+      </c>
+      <c r="V352" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-londrina/ITIOoZQI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D353" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E353" s="2" t="n">
+        <v>45241.0625</v>
+      </c>
+      <c r="F353" t="inlineStr">
+        <is>
+          <t>Sport Recife</t>
+        </is>
+      </c>
+      <c r="G353" t="n">
+        <v>0</v>
+      </c>
+      <c r="H353" t="inlineStr">
+        <is>
+          <t>Atletico GO</t>
+        </is>
+      </c>
+      <c r="I353" t="n">
+        <v>0</v>
+      </c>
+      <c r="J353" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M353" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N353" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O353" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="P353" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q353" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="R353" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="S353" t="inlineStr">
+        <is>
+          <t>04/11/2023 06:43</t>
+        </is>
+      </c>
+      <c r="T353" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="U353" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:25</t>
+        </is>
+      </c>
+      <c r="V353" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-atletico-go/WzZvlP7n/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V353"/>
+  <dimension ref="A1:V354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -4069,71 +4069,71 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>2</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
       <c r="J60" t="n">
-        <v>2.28</v>
+        <v>2</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.22</v>
+        <v>2.07</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.05</v>
+        <v>3.16</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.22</v>
+        <v>3.27</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>3.4</v>
+        <v>4.08</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>14/05/2023 20:42</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.68</v>
+        <v>4.06</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>19/05/2023 23:52</t>
+          <t>19/05/2023 23:58</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
         </is>
       </c>
     </row>
@@ -6001,71 +6001,71 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G61" t="n">
+        <v>2</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Londrina</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
-        <v>2</v>
-      </c>
       <c r="J61" t="n">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L61" t="n">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.16</v>
+        <v>3.05</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.27</v>
+        <v>3.22</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.08</v>
+        <v>3.4</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>14/05/2023 20:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.06</v>
+        <v>3.68</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>19/05/2023 23:58</t>
+          <t>19/05/2023 23:52</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-londrina/SK5UM3GG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vitoria/buEDQoHi/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>2.5</v>
+        <v>1.78</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.15</v>
+        <v>1.71</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
+          <t>24/05/2023 23:37</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="N73" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q73" t="inlineStr">
+      <c r="R73" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>21/05/2023 23:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
-      <c r="R73" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="T73" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t>24/05/2023 23:59</t>
-        </is>
-      </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7381,62 +7381,62 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N76" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>3.35</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>4.56</v>
+        <v>3.2</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/05/2023 22:00</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
         <v>1</v>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
       <c r="J81" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>3.2</v>
+        <v>4.56</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 22:00</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -9589,30 +9589,30 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>2.37</v>
+        <v>2.46</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="L100" t="n">
-        <v>2.81</v>
+        <v>2.46</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
@@ -9620,15 +9620,15 @@
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.05</v>
+        <v>3.03</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="P100" t="n">
-        <v>2.99</v>
+        <v>3.18</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,15 +9636,15 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>3.22</v>
+        <v>3.08</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>04/06/2023 00:13</t>
+          <t>03/06/2023 02:42</t>
         </is>
       </c>
       <c r="T100" t="n">
-        <v>2.92</v>
+        <v>3.2</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
@@ -9653,7 +9653,7 @@
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.46</v>
+        <v>1.7</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="L101" t="n">
-        <v>2.46</v>
+        <v>1.58</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.18</v>
+        <v>3.74</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>3.08</v>
+        <v>5.08</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>03/06/2023 02:42</t>
+          <t>03/06/2023 22:12</t>
         </is>
       </c>
       <c r="T101" t="n">
-        <v>3.2</v>
+        <v>7.21</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>06/06/2023 23:59</t>
+          <t>06/06/2023 23:38</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vitoria/Kp3SflSa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
         </is>
       </c>
     </row>
@@ -9773,7 +9773,7 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G102" t="n">
@@ -9781,63 +9781,63 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102" t="n">
-        <v>1.7</v>
+        <v>2.37</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.58</v>
+        <v>2.81</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.56</v>
+        <v>3.05</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>5.08</v>
+        <v>3.22</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>03/06/2023 22:12</t>
+          <t>04/06/2023 00:13</t>
         </is>
       </c>
       <c r="T102" t="n">
-        <v>7.21</v>
+        <v>2.92</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>06/06/2023 23:38</t>
+          <t>06/06/2023 23:59</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-abc/fT01tkD6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-vila-nova-fc/6saOeUCg/</t>
         </is>
       </c>
     </row>
@@ -15385,71 +15385,71 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.99</v>
+        <v>2.64</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.95</v>
+        <v>2.68</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.21</v>
+        <v>3.01</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.2</v>
+        <v>2.99</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:20</t>
+          <t>15/07/2023 02:27</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>4.35</v>
+        <v>2.87</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
-          <t>08/07/2023 23:12</t>
+          <t>09/07/2023 23:11</t>
         </is>
       </c>
       <c r="T163" t="n">
-        <v>4.74</v>
+        <v>3.07</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>15/07/2023 02:21</t>
+          <t>15/07/2023 02:29</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
         </is>
       </c>
     </row>
@@ -15477,71 +15477,71 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J164" t="n">
-        <v>2.64</v>
+        <v>1.99</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="L164" t="n">
-        <v>2.68</v>
+        <v>1.95</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="P164" t="n">
-        <v>2.99</v>
+        <v>3.2</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:27</t>
+          <t>15/07/2023 02:20</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.87</v>
+        <v>4.35</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
-          <t>09/07/2023 23:11</t>
+          <t>08/07/2023 23:12</t>
         </is>
       </c>
       <c r="T164" t="n">
-        <v>3.07</v>
+        <v>4.74</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>15/07/2023 02:29</t>
+          <t>15/07/2023 02:21</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-sport-recife/KlNQMIY6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ituano/KnWlRXPh/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Guarani</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>1</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Vitoria</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>2</v>
-      </c>
       <c r="J176" t="n">
-        <v>1.69</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>1.74</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.51</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>16/07/2023 23:12</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
         <v>3.42</v>
       </c>
-      <c r="Q176" t="inlineStr">
-        <is>
-          <t>20/07/2023 01:54</t>
-        </is>
-      </c>
-      <c r="R176" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>16/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>5.96</v>
-      </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>20/07/2023 01:57</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16765,71 +16765,71 @@
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="I178" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J178" t="n">
-        <v>2.6</v>
+        <v>1.69</v>
       </c>
       <c r="K178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="L178" t="n">
-        <v>2.6</v>
+        <v>1.74</v>
       </c>
       <c r="M178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="N178" t="n">
-        <v>2.85</v>
+        <v>3.51</v>
       </c>
       <c r="O178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="P178" t="n">
-        <v>2.81</v>
+        <v>3.42</v>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 01:54</t>
         </is>
       </c>
       <c r="R178" t="n">
-        <v>3.08</v>
+        <v>5.8</v>
       </c>
       <c r="S178" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>16/07/2023 23:12</t>
         </is>
       </c>
       <c r="T178" t="n">
-        <v>3.42</v>
+        <v>5.96</v>
       </c>
       <c r="U178" t="inlineStr">
         <is>
-          <t>20/07/2023 02:29</t>
+          <t>20/07/2023 01:57</t>
         </is>
       </c>
       <c r="V178" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-vitoria/SCeSvifh/</t>
         </is>
       </c>
     </row>
@@ -18237,71 +18237,71 @@
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="K194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="L194" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="M194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="N194" t="n">
-        <v>3.02</v>
+        <v>3.05</v>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="P194" t="n">
-        <v>2.86</v>
+        <v>3.07</v>
       </c>
       <c r="Q194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:57</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="R194" t="n">
-        <v>3.78</v>
+        <v>4.35</v>
       </c>
       <c r="S194" t="inlineStr">
         <is>
-          <t>23/07/2023 16:12</t>
+          <t>25/07/2023 00:12</t>
         </is>
       </c>
       <c r="T194" t="n">
-        <v>3.74</v>
+        <v>4.02</v>
       </c>
       <c r="U194" t="inlineStr">
         <is>
-          <t>29/07/2023 21:58</t>
+          <t>29/07/2023 21:51</t>
         </is>
       </c>
       <c r="V194" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
         </is>
       </c>
     </row>
@@ -18329,71 +18329,71 @@
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J195" t="n">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="K195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="L195" t="n">
-        <v>2.18</v>
+        <v>2.4</v>
       </c>
       <c r="M195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="N195" t="n">
-        <v>3.05</v>
+        <v>3.02</v>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="P195" t="n">
-        <v>3.07</v>
+        <v>2.86</v>
       </c>
       <c r="Q195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:57</t>
         </is>
       </c>
       <c r="R195" t="n">
-        <v>4.35</v>
+        <v>3.78</v>
       </c>
       <c r="S195" t="inlineStr">
         <is>
-          <t>25/07/2023 00:12</t>
+          <t>23/07/2023 16:12</t>
         </is>
       </c>
       <c r="T195" t="n">
-        <v>4.02</v>
+        <v>3.74</v>
       </c>
       <c r="U195" t="inlineStr">
         <is>
-          <t>29/07/2023 21:51</t>
+          <t>29/07/2023 21:58</t>
         </is>
       </c>
       <c r="V195" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-londrina/rq200PMS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-guarani/QsYhspGj/</t>
         </is>
       </c>
     </row>
@@ -18789,71 +18789,71 @@
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J200" t="n">
-        <v>2.02</v>
+        <v>1.57</v>
       </c>
       <c r="K200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L200" t="n">
-        <v>2.09</v>
+        <v>1.66</v>
       </c>
       <c r="M200" t="inlineStr">
         <is>
+          <t>01/08/2023 23:33</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
           <t>01/08/2023 23:51</t>
         </is>
       </c>
-      <c r="N200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="O200" t="inlineStr">
-        <is>
-          <t>29/07/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P200" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="Q200" t="inlineStr">
-        <is>
-          <t>01/08/2023 23:51</t>
-        </is>
-      </c>
       <c r="R200" t="n">
-        <v>4.16</v>
+        <v>6.77</v>
       </c>
       <c r="S200" t="inlineStr">
         <is>
-          <t>29/07/2023 23:12</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="T200" t="n">
-        <v>4.39</v>
+        <v>6.16</v>
       </c>
       <c r="U200" t="inlineStr">
         <is>
-          <t>01/08/2023 23:51</t>
+          <t>01/08/2023 23:33</t>
         </is>
       </c>
       <c r="V200" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
         </is>
       </c>
     </row>
@@ -18881,46 +18881,46 @@
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>1.57</v>
+        <v>2.02</v>
       </c>
       <c r="K201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="L201" t="n">
-        <v>1.66</v>
+        <v>2.09</v>
       </c>
       <c r="M201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="N201" t="n">
-        <v>3.79</v>
+        <v>3.06</v>
       </c>
       <c r="O201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="P201" t="n">
-        <v>3.68</v>
+        <v>3.06</v>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
@@ -18928,24 +18928,24 @@
         </is>
       </c>
       <c r="R201" t="n">
-        <v>6.77</v>
+        <v>4.16</v>
       </c>
       <c r="S201" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>29/07/2023 23:12</t>
         </is>
       </c>
       <c r="T201" t="n">
-        <v>6.16</v>
+        <v>4.39</v>
       </c>
       <c r="U201" t="inlineStr">
         <is>
-          <t>01/08/2023 23:33</t>
+          <t>01/08/2023 23:51</t>
         </is>
       </c>
       <c r="V201" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-avai/6cZMHQi3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-botafogo-sp/SCNVF4MF/</t>
         </is>
       </c>
     </row>
@@ -19249,42 +19249,42 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I205" t="n">
         <v>1</v>
       </c>
       <c r="J205" t="n">
-        <v>2.51</v>
+        <v>2.3</v>
       </c>
       <c r="K205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L205" t="n">
-        <v>2.59</v>
+        <v>2.31</v>
       </c>
       <c r="M205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="N205" t="n">
-        <v>2.96</v>
+        <v>2.97</v>
       </c>
       <c r="O205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P205" t="n">
@@ -19292,28 +19292,28 @@
       </c>
       <c r="Q205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:19</t>
         </is>
       </c>
       <c r="R205" t="n">
-        <v>3.26</v>
+        <v>3.68</v>
       </c>
       <c r="S205" t="inlineStr">
         <is>
-          <t>29/07/2023 22:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T205" t="n">
-        <v>3.31</v>
+        <v>3.9</v>
       </c>
       <c r="U205" t="inlineStr">
         <is>
-          <t>03/08/2023 02:18</t>
+          <t>03/08/2023 02:27</t>
         </is>
       </c>
       <c r="V205" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
         </is>
       </c>
     </row>
@@ -19341,22 +19341,22 @@
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J206" t="n">
-        <v>2.2</v>
+        <v>2.51</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -19364,15 +19364,15 @@
         </is>
       </c>
       <c r="L206" t="n">
-        <v>2.1</v>
+        <v>2.59</v>
       </c>
       <c r="M206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="N206" t="n">
-        <v>3.08</v>
+        <v>2.96</v>
       </c>
       <c r="O206" t="inlineStr">
         <is>
@@ -19380,15 +19380,15 @@
         </is>
       </c>
       <c r="P206" t="n">
-        <v>3.18</v>
+        <v>2.9</v>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:24</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="R206" t="n">
-        <v>3.79</v>
+        <v>3.26</v>
       </c>
       <c r="S206" t="inlineStr">
         <is>
@@ -19396,16 +19396,16 @@
         </is>
       </c>
       <c r="T206" t="n">
-        <v>4.11</v>
+        <v>3.31</v>
       </c>
       <c r="U206" t="inlineStr">
         <is>
-          <t>03/08/2023 02:28</t>
+          <t>03/08/2023 02:18</t>
         </is>
       </c>
       <c r="V206" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-chapecoense-sc/YBk3cd6l/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
       <c r="J207" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>2.46</v>
+        <v>2.1</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>03/08/2023 02:21</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>2.96</v>
+        <v>3.08</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>29/07/2023 22:12</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>2.94</v>
+        <v>3.18</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
+          <t>03/08/2023 02:24</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>29/07/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
           <t>03/08/2023 02:28</t>
         </is>
       </c>
-      <c r="R207" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="S207" t="inlineStr">
-        <is>
-          <t>30/07/2023 20:42</t>
-        </is>
-      </c>
-      <c r="T207" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="U207" t="inlineStr">
-        <is>
-          <t>03/08/2023 02:21</t>
-        </is>
-      </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-ceara/phlSeqVq/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
       <c r="J208" t="n">
-        <v>1.6</v>
+        <v>2.38</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.47</v>
+        <v>2.46</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.78</v>
+        <v>2.96</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>4.23</v>
+        <v>2.94</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:28</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>5.67</v>
+        <v>3.51</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>30/07/2023 23:12</t>
+          <t>30/07/2023 20:42</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>8.199999999999999</v>
+        <v>3.48</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>03/08/2023 02:29</t>
+          <t>03/08/2023 02:21</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-novorizontino/fLjabxir/</t>
         </is>
       </c>
     </row>
@@ -19617,71 +19617,71 @@
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G209" t="n">
+        <v>2</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>Sport Recife</t>
-        </is>
-      </c>
-      <c r="I209" t="n">
-        <v>1</v>
-      </c>
       <c r="J209" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="L209" t="n">
-        <v>2.31</v>
+        <v>1.47</v>
       </c>
       <c r="M209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="N209" t="n">
-        <v>2.97</v>
+        <v>3.78</v>
       </c>
       <c r="O209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="P209" t="n">
-        <v>2.9</v>
+        <v>4.23</v>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:19</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="R209" t="n">
-        <v>3.68</v>
+        <v>5.67</v>
       </c>
       <c r="S209" t="inlineStr">
         <is>
-          <t>30/07/2023 20:42</t>
+          <t>30/07/2023 23:12</t>
         </is>
       </c>
       <c r="T209" t="n">
-        <v>3.9</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="U209" t="inlineStr">
         <is>
-          <t>03/08/2023 02:27</t>
+          <t>03/08/2023 02:29</t>
         </is>
       </c>
       <c r="V209" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-sport-recife/2TrXf3pj/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-abc/lMORGp79/</t>
         </is>
       </c>
     </row>
@@ -22009,22 +22009,22 @@
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J235" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -22032,7 +22032,7 @@
         </is>
       </c>
       <c r="L235" t="n">
-        <v>2.94</v>
+        <v>2.79</v>
       </c>
       <c r="M235" t="inlineStr">
         <is>
@@ -22040,31 +22040,31 @@
         </is>
       </c>
       <c r="N235" t="n">
+        <v>3</v>
+      </c>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P235" t="n">
         <v>2.95</v>
       </c>
-      <c r="O235" t="inlineStr">
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R235" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S235" t="inlineStr">
         <is>
           <t>15/08/2023 00:12</t>
         </is>
       </c>
-      <c r="P235" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q235" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:57</t>
-        </is>
-      </c>
-      <c r="R235" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="S235" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
       <c r="T235" t="n">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="U235" t="inlineStr">
         <is>
@@ -22073,7 +22073,7 @@
       </c>
       <c r="V235" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
         </is>
       </c>
     </row>
@@ -22101,22 +22101,22 @@
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G236" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J236" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -22124,7 +22124,7 @@
         </is>
       </c>
       <c r="L236" t="n">
-        <v>2.79</v>
+        <v>2.94</v>
       </c>
       <c r="M236" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         </is>
       </c>
       <c r="N236" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="O236" t="inlineStr">
         <is>
@@ -22140,32 +22140,32 @@
         </is>
       </c>
       <c r="P236" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>19/08/2023 21:57</t>
+        </is>
+      </c>
+      <c r="R236" t="n">
         <v>2.95</v>
       </c>
-      <c r="Q236" t="inlineStr">
+      <c r="S236" t="inlineStr">
+        <is>
+          <t>15/08/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T236" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U236" t="inlineStr">
         <is>
           <t>19/08/2023 21:51</t>
         </is>
       </c>
-      <c r="R236" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="S236" t="inlineStr">
-        <is>
-          <t>15/08/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T236" t="n">
-        <v>2.98</v>
-      </c>
-      <c r="U236" t="inlineStr">
-        <is>
-          <t>19/08/2023 21:51</t>
-        </is>
-      </c>
       <c r="V236" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-criciuma/jmzKsEBP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-crb/jBI6Y9YB/</t>
         </is>
       </c>
     </row>
@@ -32930,6 +32930,98 @@
       <c r="V353" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-atletico-go/WzZvlP7n/</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D354" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E354" s="2" t="n">
+        <v>45241.8125</v>
+      </c>
+      <c r="F354" t="inlineStr">
+        <is>
+          <t>Ituano</t>
+        </is>
+      </c>
+      <c r="G354" t="n">
+        <v>2</v>
+      </c>
+      <c r="H354" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I354" t="n">
+        <v>1</v>
+      </c>
+      <c r="J354" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M354" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="N354" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O354" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="P354" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q354" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="R354" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S354" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="T354" t="n">
+        <v>5.42</v>
+      </c>
+      <c r="U354" t="inlineStr">
+        <is>
+          <t>11/11/2023 19:22</t>
+        </is>
+      </c>
+      <c r="V354" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-sampaio-correa/0hr9gopP/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V354"/>
+  <dimension ref="A1:V357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>28/04/2023 23:49</t>
+          <t>28/04/2023 23:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,15 +2276,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.21</v>
+        <v>3.45</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.46</v>
+        <v>4.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>23/04/2023 23:12</t>
+          <t>22/04/2023 21:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>28/04/2023 23:49</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>28/04/2023 23:59</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.06</v>
+        <v>3.08</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.3</v>
+        <v>3.44</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.96</v>
+        <v>3.31</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.55</v>
+        <v>4.11</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.07</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>1.95</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.06</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.3</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.96</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.55</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G53" t="n">
+        <v>2</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
-        <v>1</v>
-      </c>
       <c r="J53" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G57" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
         <v>2</v>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
-        <v>3</v>
-      </c>
       <c r="J57" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G65" t="n">
+        <v>1</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
-        <v>2</v>
-      </c>
       <c r="J65" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -16581,30 +16581,30 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G176" t="n">
+        <v>2</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I176" t="n">
-        <v>1</v>
-      </c>
       <c r="J176" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,31 +16612,31 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
@@ -16645,7 +16645,7 @@
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J177" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,40 +16704,40 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R177" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S177" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T177" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U177" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -25781,46 +25781,46 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N276" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P276" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
@@ -25828,15 +25828,15 @@
         </is>
       </c>
       <c r="R276" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S276" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T276" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U276" t="inlineStr">
         <is>
@@ -25845,7 +25845,7 @@
       </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -25873,71 +25873,71 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N277" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P277" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q277" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N277" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P277" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q277" t="inlineStr">
+      <c r="R277" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S277" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T277" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U277" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R277" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S277" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T277" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U277" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J287" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -28633,22 +28633,22 @@
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I307" t="n">
         <v>1</v>
       </c>
       <c r="J307" t="n">
-        <v>3.32</v>
+        <v>2.02</v>
       </c>
       <c r="K307" t="inlineStr">
         <is>
@@ -28656,15 +28656,15 @@
         </is>
       </c>
       <c r="L307" t="n">
-        <v>3.03</v>
+        <v>2.05</v>
       </c>
       <c r="M307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="N307" t="n">
-        <v>2.94</v>
+        <v>3.01</v>
       </c>
       <c r="O307" t="inlineStr">
         <is>
@@ -28672,15 +28672,15 @@
         </is>
       </c>
       <c r="P307" t="n">
-        <v>2.89</v>
+        <v>3.04</v>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:51</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="R307" t="n">
-        <v>2.39</v>
+        <v>4.62</v>
       </c>
       <c r="S307" t="inlineStr">
         <is>
@@ -28688,16 +28688,16 @@
         </is>
       </c>
       <c r="T307" t="n">
-        <v>2.8</v>
+        <v>4.58</v>
       </c>
       <c r="U307" t="inlineStr">
         <is>
-          <t>07/10/2023 21:59</t>
+          <t>07/10/2023 21:58</t>
         </is>
       </c>
       <c r="V307" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
         </is>
       </c>
     </row>
@@ -28725,22 +28725,22 @@
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G308" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I308" t="n">
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>2.02</v>
+        <v>3.32</v>
       </c>
       <c r="K308" t="inlineStr">
         <is>
@@ -28748,15 +28748,15 @@
         </is>
       </c>
       <c r="L308" t="n">
-        <v>2.05</v>
+        <v>3.03</v>
       </c>
       <c r="M308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="N308" t="n">
-        <v>3.01</v>
+        <v>2.94</v>
       </c>
       <c r="O308" t="inlineStr">
         <is>
@@ -28764,15 +28764,15 @@
         </is>
       </c>
       <c r="P308" t="n">
-        <v>3.04</v>
+        <v>2.89</v>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:51</t>
         </is>
       </c>
       <c r="R308" t="n">
-        <v>4.62</v>
+        <v>2.39</v>
       </c>
       <c r="S308" t="inlineStr">
         <is>
@@ -28780,16 +28780,16 @@
         </is>
       </c>
       <c r="T308" t="n">
-        <v>4.58</v>
+        <v>2.8</v>
       </c>
       <c r="U308" t="inlineStr">
         <is>
-          <t>07/10/2023 21:58</t>
+          <t>07/10/2023 21:59</t>
         </is>
       </c>
       <c r="V308" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-avai/hnaoLEGo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-novorizontino/S4ibIC04/</t>
         </is>
       </c>
     </row>
@@ -29369,7 +29369,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -29377,63 +29377,63 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>2.37</v>
+        <v>1.51</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>2.95</v>
+        <v>3.89</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>2.99</v>
+        <v>4.03</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="R315" t="n">
-        <v>3.55</v>
+        <v>6.63</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T315" t="n">
-        <v>3.79</v>
+        <v>7.51</v>
       </c>
       <c r="U315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="V315" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -29469,63 +29469,63 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>1.51</v>
+        <v>2.37</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="R316" t="n">
-        <v>6.63</v>
+        <v>3.55</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="T316" t="n">
-        <v>7.51</v>
+        <v>3.79</v>
       </c>
       <c r="U316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
         </is>
       </c>
     </row>
@@ -30013,71 +30013,71 @@
       </c>
       <c r="F322" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G322" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H322" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I322" t="n">
         <v>1</v>
       </c>
       <c r="J322" t="n">
-        <v>2.81</v>
+        <v>1.35</v>
       </c>
       <c r="K322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="L322" t="n">
-        <v>3.42</v>
+        <v>1.39</v>
       </c>
       <c r="M322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:51</t>
         </is>
       </c>
       <c r="N322" t="n">
-        <v>2.86</v>
+        <v>4.58</v>
       </c>
       <c r="O322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="P322" t="n">
-        <v>2.91</v>
+        <v>4.61</v>
       </c>
       <c r="Q322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="R322" t="n">
-        <v>2.97</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="S322" t="inlineStr">
         <is>
-          <t>14/10/2023 21:13</t>
+          <t>15/10/2023 20:12</t>
         </is>
       </c>
       <c r="T322" t="n">
-        <v>2.52</v>
+        <v>9.75</v>
       </c>
       <c r="U322" t="inlineStr">
         <is>
-          <t>19/10/2023 23:47</t>
+          <t>19/10/2023 23:58</t>
         </is>
       </c>
       <c r="V322" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
         </is>
       </c>
     </row>
@@ -30105,71 +30105,71 @@
       </c>
       <c r="F323" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G323" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H323" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I323" t="n">
         <v>1</v>
       </c>
       <c r="J323" t="n">
-        <v>1.35</v>
+        <v>2.81</v>
       </c>
       <c r="K323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="L323" t="n">
-        <v>1.39</v>
+        <v>3.42</v>
       </c>
       <c r="M323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:51</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="N323" t="n">
-        <v>4.58</v>
+        <v>2.86</v>
       </c>
       <c r="O323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="P323" t="n">
-        <v>4.61</v>
+        <v>2.91</v>
       </c>
       <c r="Q323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="R323" t="n">
-        <v>9.109999999999999</v>
+        <v>2.97</v>
       </c>
       <c r="S323" t="inlineStr">
         <is>
-          <t>15/10/2023 20:12</t>
+          <t>14/10/2023 21:13</t>
         </is>
       </c>
       <c r="T323" t="n">
-        <v>9.75</v>
+        <v>2.52</v>
       </c>
       <c r="U323" t="inlineStr">
         <is>
-          <t>19/10/2023 23:58</t>
+          <t>19/10/2023 23:47</t>
         </is>
       </c>
       <c r="V323" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-abc/YuRGMRij/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-vila-nova-fc/8I9Nu7bS/</t>
         </is>
       </c>
     </row>
@@ -30657,71 +30657,71 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G329" t="n">
+        <v>2</v>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="I329" t="n">
         <v>1</v>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>Ceara</t>
-        </is>
-      </c>
-      <c r="I329" t="n">
-        <v>0</v>
-      </c>
       <c r="J329" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="L329" t="n">
-        <v>2.34</v>
+        <v>1.47</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:51</t>
+          <t>22/10/2023 22:52</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>3.13</v>
+        <v>4.18</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:51</t>
+          <t>22/10/2023 22:59</t>
         </is>
       </c>
       <c r="R329" t="n">
-        <v>3.01</v>
+        <v>6.14</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="T329" t="n">
-        <v>3.48</v>
+        <v>8.48</v>
       </c>
       <c r="U329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:50</t>
+          <t>22/10/2023 22:59</t>
         </is>
       </c>
       <c r="V329" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ceara/CWPKLo7d/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
         </is>
       </c>
     </row>
@@ -30749,71 +30749,71 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J330" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>1.47</v>
+        <v>2.34</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:52</t>
+          <t>22/10/2023 22:51</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:59</t>
+          <t>22/10/2023 22:51</t>
         </is>
       </c>
       <c r="R330" t="n">
-        <v>6.14</v>
+        <v>3.01</v>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="T330" t="n">
-        <v>8.48</v>
+        <v>3.48</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:59</t>
+          <t>22/10/2023 22:50</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ceara/CWPKLo7d/</t>
         </is>
       </c>
     </row>
@@ -31117,71 +31117,71 @@
       </c>
       <c r="F334" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G334" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H334" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I334" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J334" t="n">
-        <v>1.53</v>
+        <v>1.64</v>
       </c>
       <c r="K334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="L334" t="n">
-        <v>1.39</v>
+        <v>1.7</v>
       </c>
       <c r="M334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:21</t>
+          <t>28/10/2023 02:05</t>
         </is>
       </c>
       <c r="N334" t="n">
-        <v>3.81</v>
+        <v>3.41</v>
       </c>
       <c r="O334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="P334" t="n">
-        <v>4.57</v>
+        <v>3.43</v>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:17</t>
         </is>
       </c>
       <c r="R334" t="n">
-        <v>6.57</v>
+        <v>6.14</v>
       </c>
       <c r="S334" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 22:12</t>
         </is>
       </c>
       <c r="T334" t="n">
-        <v>10.13</v>
+        <v>6.36</v>
       </c>
       <c r="U334" t="inlineStr">
         <is>
-          <t>28/10/2023 02:28</t>
+          <t>28/10/2023 02:24</t>
         </is>
       </c>
       <c r="V334" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
         </is>
       </c>
     </row>
@@ -31209,71 +31209,71 @@
       </c>
       <c r="F335" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G335" t="n">
+        <v>2</v>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>Botafogo SP</t>
-        </is>
-      </c>
-      <c r="I335" t="n">
-        <v>1</v>
-      </c>
       <c r="J335" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="K335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L335" t="n">
-        <v>1.7</v>
+        <v>1.39</v>
       </c>
       <c r="M335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:05</t>
+          <t>28/10/2023 02:21</t>
         </is>
       </c>
       <c r="N335" t="n">
-        <v>3.41</v>
+        <v>3.81</v>
       </c>
       <c r="O335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P335" t="n">
-        <v>3.43</v>
+        <v>4.57</v>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:17</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="R335" t="n">
-        <v>6.14</v>
+        <v>6.57</v>
       </c>
       <c r="S335" t="inlineStr">
         <is>
-          <t>21/10/2023 22:12</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T335" t="n">
-        <v>6.36</v>
+        <v>10.13</v>
       </c>
       <c r="U335" t="inlineStr">
         <is>
-          <t>28/10/2023 02:24</t>
+          <t>28/10/2023 02:28</t>
         </is>
       </c>
       <c r="V335" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-botafogo-sp/QZkfzoMk/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-ponte-preta/EeWldSr9/</t>
         </is>
       </c>
     </row>
@@ -31301,71 +31301,71 @@
       </c>
       <c r="F336" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G336" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H336" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
       <c r="J336" t="n">
-        <v>3.08</v>
+        <v>1.7</v>
       </c>
       <c r="K336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="L336" t="n">
-        <v>3.71</v>
+        <v>1.58</v>
       </c>
       <c r="M336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="N336" t="n">
-        <v>2.89</v>
+        <v>3.42</v>
       </c>
       <c r="O336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="P336" t="n">
-        <v>2.9</v>
+        <v>3.72</v>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="R336" t="n">
-        <v>2.57</v>
+        <v>5.95</v>
       </c>
       <c r="S336" t="inlineStr">
         <is>
-          <t>24/10/2023 01:12</t>
+          <t>21/10/2023 23:42</t>
         </is>
       </c>
       <c r="T336" t="n">
-        <v>2.39</v>
+        <v>7.22</v>
       </c>
       <c r="U336" t="inlineStr">
         <is>
-          <t>28/10/2023 20:24</t>
+          <t>28/10/2023 20:26</t>
         </is>
       </c>
       <c r="V336" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
         </is>
       </c>
     </row>
@@ -31393,71 +31393,71 @@
       </c>
       <c r="F337" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G337" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H337" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
       <c r="J337" t="n">
-        <v>1.7</v>
+        <v>3.08</v>
       </c>
       <c r="K337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="L337" t="n">
-        <v>1.58</v>
+        <v>3.71</v>
       </c>
       <c r="M337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="N337" t="n">
-        <v>3.42</v>
+        <v>2.89</v>
       </c>
       <c r="O337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="P337" t="n">
-        <v>3.72</v>
+        <v>2.9</v>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="R337" t="n">
-        <v>5.95</v>
+        <v>2.57</v>
       </c>
       <c r="S337" t="inlineStr">
         <is>
-          <t>21/10/2023 23:42</t>
+          <t>24/10/2023 01:12</t>
         </is>
       </c>
       <c r="T337" t="n">
-        <v>7.22</v>
+        <v>2.39</v>
       </c>
       <c r="U337" t="inlineStr">
         <is>
-          <t>28/10/2023 20:26</t>
+          <t>28/10/2023 20:24</t>
         </is>
       </c>
       <c r="V337" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sampaio-correa/bml2YOj2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-mirassol/z5Xpc8T2/</t>
         </is>
       </c>
     </row>
@@ -33022,6 +33022,282 @@
       <c r="V354" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-sampaio-correa/0hr9gopP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D355" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E355" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F355" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="G355" t="n">
+        <v>2</v>
+      </c>
+      <c r="H355" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I355" t="n">
+        <v>0</v>
+      </c>
+      <c r="J355" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M355" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N355" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="O355" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P355" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q355" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R355" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="S355" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T355" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="U355" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V355" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-botafogo-sp/jwktn3xa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D356" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E356" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F356" t="inlineStr">
+        <is>
+          <t>Avai</t>
+        </is>
+      </c>
+      <c r="G356" t="n">
+        <v>1</v>
+      </c>
+      <c r="H356" t="inlineStr">
+        <is>
+          <t>CRB</t>
+        </is>
+      </c>
+      <c r="I356" t="n">
+        <v>1</v>
+      </c>
+      <c r="J356" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M356" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N356" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O356" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P356" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q356" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:31</t>
+        </is>
+      </c>
+      <c r="R356" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S356" t="inlineStr">
+        <is>
+          <t>07/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T356" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="U356" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V356" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-crb/dKHSpgtP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D357" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E357" s="2" t="n">
+        <v>45241.91666666666</v>
+      </c>
+      <c r="F357" t="inlineStr">
+        <is>
+          <t>Tombense</t>
+        </is>
+      </c>
+      <c r="G357" t="n">
+        <v>0</v>
+      </c>
+      <c r="H357" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I357" t="n">
+        <v>1</v>
+      </c>
+      <c r="J357" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M357" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="N357" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O357" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="P357" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q357" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="R357" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S357" t="inlineStr">
+        <is>
+          <t>04/11/2023 23:43</t>
+        </is>
+      </c>
+      <c r="T357" t="n">
+        <v>6.18</v>
+      </c>
+      <c r="U357" t="inlineStr">
+        <is>
+          <t>11/11/2023 21:51</t>
+        </is>
+      </c>
+      <c r="V357" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-ponte-preta/UTmpoNi5/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V357"/>
+  <dimension ref="A1:V358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>23/04/2023 23:12</t>
+          <t>22/04/2023 21:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>28/04/2023 23:49</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q20" t="inlineStr">
+      <c r="R20" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U20" t="inlineStr">
         <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>28/04/2023 23:59</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
         </is>
       </c>
     </row>
@@ -2321,46 +2321,46 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>28/04/2023 23:49</t>
+          <t>28/04/2023 23:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
@@ -2368,15 +2368,15 @@
         </is>
       </c>
       <c r="R21" t="n">
-        <v>5.21</v>
+        <v>3.45</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>5.46</v>
+        <v>4.94</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
@@ -2385,7 +2385,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4161,71 +4161,71 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="I41" t="n">
         <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="L41" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:09</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>3.08</v>
+        <v>3.06</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="P41" t="n">
-        <v>3.44</v>
+        <v>3.3</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:10</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>3.31</v>
+        <v>3.96</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>06/05/2023 15:09</t>
         </is>
       </c>
       <c r="T41" t="n">
-        <v>4.11</v>
+        <v>4.55</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>06/05/2023 23:13</t>
+          <t>06/05/2023 23:14</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
         </is>
       </c>
     </row>
@@ -4253,71 +4253,71 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.07</v>
+        <v>2.2</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.95</v>
+        <v>2.03</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:09</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.06</v>
+        <v>3.21</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.3</v>
+        <v>3.32</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:10</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.96</v>
+        <v>3.4</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>06/05/2023 15:09</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.55</v>
+        <v>4.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>06/05/2023 23:14</t>
+          <t>06/05/2023 23:13</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-vila-nova-fc/YeZjHMMt/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.72</v>
+        <v>1.69</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.88</v>
+        <v>1.76</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.87</v>
+        <v>3.66</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.38</v>
+        <v>3.56</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:12</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>5.1</v>
+        <v>4.94</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>10/05/2023 02:41</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>4.78</v>
+        <v>5.33</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>13/05/2023 21:58</t>
+          <t>13/05/2023 21:55</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="G54" t="n">
+        <v>2</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>CRB</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
-        <v>1</v>
-      </c>
       <c r="J54" t="n">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.76</v>
+        <v>1.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.66</v>
+        <v>3.87</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.56</v>
+        <v>3.38</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:12</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>4.94</v>
+        <v>5.1</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>10/05/2023 02:41</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>5.33</v>
+        <v>4.78</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>13/05/2023 21:55</t>
+          <t>13/05/2023 21:58</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-crb/COkWD8Xo/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/guarani-sampaio-correa/b3KGBIjI/</t>
         </is>
       </c>
     </row>
@@ -5633,71 +5633,71 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J57" t="n">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="L57" t="n">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>3.11</v>
+        <v>3.28</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="P57" t="n">
-        <v>3.06</v>
+        <v>3.38</v>
       </c>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:54</t>
+          <t>14/05/2023 22:49</t>
         </is>
       </c>
       <c r="R57" t="n">
-        <v>3.81</v>
+        <v>3.76</v>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>10/05/2023 02:42</t>
+          <t>11/05/2023 00:12</t>
         </is>
       </c>
       <c r="T57" t="n">
-        <v>4.08</v>
+        <v>4.39</v>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>14/05/2023 22:57</t>
+          <t>14/05/2023 22:59</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
         </is>
       </c>
     </row>
@@ -5725,71 +5725,71 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G58" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Botafogo SP</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
         <v>2</v>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
-        <v>3</v>
-      </c>
       <c r="J58" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="L58" t="n">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.28</v>
+        <v>3.11</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.38</v>
+        <v>3.06</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:49</t>
+          <t>14/05/2023 22:54</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.76</v>
+        <v>3.81</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>11/05/2023 00:12</t>
+          <t>10/05/2023 02:42</t>
         </is>
       </c>
       <c r="T58" t="n">
-        <v>4.39</v>
+        <v>4.08</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>14/05/2023 22:59</t>
+          <t>14/05/2023 22:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-atletico-go/6okzDSnh/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-botafogo-sp/zRti9pnH/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.65</v>
+        <v>1.93</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.71</v>
+        <v>1.91</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:52</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.13</v>
+        <v>3.34</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.08</v>
+        <v>3.47</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:59</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>4.4</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/05/2023 01:42</t>
+          <t>14/05/2023 23:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.94</v>
+        <v>4.47</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>20/05/2023 21:50</t>
+          <t>20/05/2023 21:57</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.93</v>
+        <v>2.65</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.91</v>
+        <v>2.71</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:52</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.34</v>
+        <v>3.13</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.47</v>
+        <v>3.08</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:59</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.4</v>
+        <v>2.75</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/05/2023 23:12</t>
+          <t>15/05/2023 01:42</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>4.47</v>
+        <v>2.94</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>20/05/2023 21:57</t>
+          <t>20/05/2023 21:50</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-abc/f77MOPo4/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-novorizontino/KlF9RR1o/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J85" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>1</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>3</v>
-      </c>
       <c r="J86" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8853,7 +8853,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G92" t="n">
@@ -8861,14 +8861,14 @@
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.69</v>
+        <v>2.06</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,15 +8876,15 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.78</v>
+        <v>2.11</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.53</v>
+        <v>3.24</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.51</v>
+        <v>3.1</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>5.21</v>
+        <v>3.73</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,16 +8908,16 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>5.29</v>
+        <v>4.21</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>03/06/2023 02:24</t>
+          <t>03/06/2023 02:13</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
         </is>
       </c>
     </row>
@@ -8945,7 +8945,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G93" t="n">
@@ -8953,14 +8953,14 @@
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>2.06</v>
+        <v>1.69</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -8968,15 +8968,15 @@
         </is>
       </c>
       <c r="L93" t="n">
-        <v>2.11</v>
+        <v>1.78</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.24</v>
+        <v>3.53</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
@@ -8984,15 +8984,15 @@
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.1</v>
+        <v>3.51</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>3.73</v>
+        <v>5.21</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
@@ -9000,16 +9000,16 @@
         </is>
       </c>
       <c r="T93" t="n">
-        <v>4.21</v>
+        <v>5.29</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
-          <t>03/06/2023 02:13</t>
+          <t>03/06/2023 02:24</t>
         </is>
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-atletico-go/tQzSRkbD/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-ituano/jeIIlD5Q/</t>
         </is>
       </c>
     </row>
@@ -10693,7 +10693,7 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G112" t="n">
@@ -10701,63 +10701,63 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.56</v>
+        <v>2.51</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.61</v>
+        <v>2.28</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:51</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.64</v>
+        <v>3.03</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.81</v>
+        <v>3.22</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>6.5</v>
+        <v>3.02</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>08/06/2023 14:42</t>
+          <t>07/06/2023 02:42</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.55</v>
+        <v>3.5</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/06/2023 21:22</t>
+          <t>10/06/2023 21:59</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
         </is>
       </c>
     </row>
@@ -10785,7 +10785,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10793,63 +10793,63 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J113" t="n">
-        <v>2.51</v>
+        <v>1.56</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.28</v>
+        <v>1.61</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:51</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.03</v>
+        <v>3.64</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.22</v>
+        <v>3.81</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.02</v>
+        <v>6.5</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>07/06/2023 02:42</t>
+          <t>08/06/2023 14:42</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.5</v>
+        <v>6.55</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/06/2023 21:59</t>
+          <t>10/06/2023 21:22</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-atletico-go/jVYRFk4P/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-sampaio-correa/QNPgB9Ct/</t>
         </is>
       </c>
     </row>
@@ -16581,30 +16581,30 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
@@ -16612,40 +16612,40 @@
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>15/07/2023 02:42</t>
+          <t>15/07/2023 16:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>2.98</v>
+        <v>2.81</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
+          <t>20/07/2023 02:26</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>15/07/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
           <t>20/07/2023 02:29</t>
         </is>
       </c>
-      <c r="R176" t="n">
-        <v>3.82</v>
-      </c>
-      <c r="S176" t="inlineStr">
-        <is>
-          <t>15/07/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T176" t="n">
-        <v>4.71</v>
-      </c>
-      <c r="U176" t="inlineStr">
-        <is>
-          <t>20/07/2023 02:29</t>
-        </is>
-      </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
         </is>
       </c>
     </row>
@@ -16673,30 +16673,30 @@
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Sampaio Correa</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>Guarani</t>
-        </is>
-      </c>
-      <c r="I177" t="n">
-        <v>1</v>
-      </c>
       <c r="J177" t="n">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="K177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="L177" t="n">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="M177" t="inlineStr">
         <is>
@@ -16704,31 +16704,31 @@
         </is>
       </c>
       <c r="N177" t="n">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="P177" t="n">
-        <v>2.81</v>
+        <v>2.98</v>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
-          <t>20/07/2023 02:26</t>
+          <t>20/07/2023 02:29</t>
         </is>
       </c>
       <c r="R177" t="n">
-        <v>3.08</v>
+        <v>3.82</v>
       </c>
       <c r="S177" t="inlineStr">
         <is>
-          <t>15/07/2023 16:12</t>
+          <t>15/07/2023 02:42</t>
         </is>
       </c>
       <c r="T177" t="n">
-        <v>3.42</v>
+        <v>4.71</v>
       </c>
       <c r="U177" t="inlineStr">
         <is>
@@ -16737,7 +16737,7 @@
       </c>
       <c r="V177" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-guarani/KS9yy9gH/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-sampaio-correa/fPQDLTgU/</t>
         </is>
       </c>
     </row>
@@ -29369,7 +29369,7 @@
       </c>
       <c r="F315" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G315" t="n">
@@ -29377,63 +29377,63 @@
       </c>
       <c r="H315" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
       <c r="J315" t="n">
-        <v>1.51</v>
+        <v>2.37</v>
       </c>
       <c r="K315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="L315" t="n">
-        <v>1.52</v>
+        <v>2.3</v>
       </c>
       <c r="M315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="N315" t="n">
-        <v>3.89</v>
+        <v>2.95</v>
       </c>
       <c r="O315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="P315" t="n">
-        <v>4.03</v>
+        <v>2.99</v>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="R315" t="n">
-        <v>6.63</v>
+        <v>3.55</v>
       </c>
       <c r="S315" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>07/10/2023 21:12</t>
         </is>
       </c>
       <c r="T315" t="n">
-        <v>7.51</v>
+        <v>3.79</v>
       </c>
       <c r="U315" t="inlineStr">
         <is>
-          <t>14/10/2023 21:54</t>
+          <t>14/10/2023 21:59</t>
         </is>
       </c>
       <c r="V315" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
         </is>
       </c>
     </row>
@@ -29461,7 +29461,7 @@
       </c>
       <c r="F316" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G316" t="n">
@@ -29469,63 +29469,63 @@
       </c>
       <c r="H316" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
       <c r="J316" t="n">
-        <v>2.37</v>
+        <v>1.51</v>
       </c>
       <c r="K316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L316" t="n">
-        <v>2.3</v>
+        <v>1.52</v>
       </c>
       <c r="M316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="N316" t="n">
-        <v>2.95</v>
+        <v>3.89</v>
       </c>
       <c r="O316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="P316" t="n">
-        <v>2.99</v>
+        <v>4.03</v>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="R316" t="n">
-        <v>3.55</v>
+        <v>6.63</v>
       </c>
       <c r="S316" t="inlineStr">
         <is>
-          <t>07/10/2023 21:12</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T316" t="n">
-        <v>3.79</v>
+        <v>7.51</v>
       </c>
       <c r="U316" t="inlineStr">
         <is>
-          <t>14/10/2023 21:59</t>
+          <t>14/10/2023 21:54</t>
         </is>
       </c>
       <c r="V316" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-crb/S4DTXi0i/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-tombense/6eCXWBFc/</t>
         </is>
       </c>
     </row>
@@ -30657,71 +30657,71 @@
       </c>
       <c r="F329" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H329" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="n">
-        <v>1.58</v>
+        <v>2.47</v>
       </c>
       <c r="K329" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="L329" t="n">
-        <v>1.47</v>
+        <v>2.34</v>
       </c>
       <c r="M329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:52</t>
+          <t>22/10/2023 22:51</t>
         </is>
       </c>
       <c r="N329" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="O329" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="P329" t="n">
-        <v>4.18</v>
+        <v>3.13</v>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:59</t>
+          <t>22/10/2023 22:51</t>
         </is>
       </c>
       <c r="R329" t="n">
-        <v>6.14</v>
+        <v>3.01</v>
       </c>
       <c r="S329" t="inlineStr">
         <is>
-          <t>17/10/2023 00:12</t>
+          <t>16/10/2023 03:12</t>
         </is>
       </c>
       <c r="T329" t="n">
-        <v>8.48</v>
+        <v>3.48</v>
       </c>
       <c r="U329" t="inlineStr">
         <is>
-          <t>22/10/2023 22:59</t>
+          <t>22/10/2023 22:50</t>
         </is>
       </c>
       <c r="V329" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ceara/CWPKLo7d/</t>
         </is>
       </c>
     </row>
@@ -30749,71 +30749,71 @@
       </c>
       <c r="F330" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="G330" t="n">
+        <v>2</v>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>Chapecoense-SC</t>
+        </is>
+      </c>
+      <c r="I330" t="n">
         <v>1</v>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>Ceara</t>
-        </is>
-      </c>
-      <c r="I330" t="n">
-        <v>0</v>
-      </c>
       <c r="J330" t="n">
-        <v>2.47</v>
+        <v>1.58</v>
       </c>
       <c r="K330" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="L330" t="n">
-        <v>2.34</v>
+        <v>1.47</v>
       </c>
       <c r="M330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:51</t>
+          <t>22/10/2023 22:52</t>
         </is>
       </c>
       <c r="N330" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="O330" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="P330" t="n">
-        <v>3.13</v>
+        <v>4.18</v>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:51</t>
+          <t>22/10/2023 22:59</t>
         </is>
       </c>
       <c r="R330" t="n">
-        <v>3.01</v>
+        <v>6.14</v>
       </c>
       <c r="S330" t="inlineStr">
         <is>
-          <t>16/10/2023 03:12</t>
+          <t>17/10/2023 00:12</t>
         </is>
       </c>
       <c r="T330" t="n">
-        <v>3.48</v>
+        <v>8.48</v>
       </c>
       <c r="U330" t="inlineStr">
         <is>
-          <t>22/10/2023 22:50</t>
+          <t>22/10/2023 22:59</t>
         </is>
       </c>
       <c r="V330" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-ceara/CWPKLo7d/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sport-recife-chapecoense-sc/M17Br9E9/</t>
         </is>
       </c>
     </row>
@@ -32037,71 +32037,71 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J344" t="n">
-        <v>1.77</v>
+        <v>2.84</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:12</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>3.34</v>
+        <v>2.72</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>3.33</v>
+        <v>2.99</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:12</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>5.52</v>
+        <v>2.99</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="T344" t="n">
-        <v>5.27</v>
+        <v>2.85</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:22</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
         </is>
       </c>
     </row>
@@ -32129,71 +32129,71 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I345" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J345" t="n">
-        <v>2.84</v>
+        <v>1.77</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>2.72</v>
+        <v>3.34</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="R345" t="n">
-        <v>2.99</v>
+        <v>5.52</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="T345" t="n">
-        <v>2.85</v>
+        <v>5.27</v>
       </c>
       <c r="U345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:22</t>
         </is>
       </c>
       <c r="V345" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
         </is>
       </c>
     </row>
@@ -33049,22 +33049,22 @@
       </c>
       <c r="F355" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="G355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H355" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I355" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J355" t="n">
-        <v>2.01</v>
+        <v>2.33</v>
       </c>
       <c r="K355" t="inlineStr">
         <is>
@@ -33072,15 +33072,15 @@
         </is>
       </c>
       <c r="L355" t="n">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="M355" t="inlineStr">
         <is>
-          <t>11/11/2023 20:56</t>
+          <t>11/11/2023 20:55</t>
         </is>
       </c>
       <c r="N355" t="n">
-        <v>3.1</v>
+        <v>3.04</v>
       </c>
       <c r="O355" t="inlineStr">
         <is>
@@ -33088,15 +33088,15 @@
         </is>
       </c>
       <c r="P355" t="n">
-        <v>3.32</v>
+        <v>3.23</v>
       </c>
       <c r="Q355" t="inlineStr">
         <is>
-          <t>11/11/2023 20:56</t>
+          <t>11/11/2023 20:31</t>
         </is>
       </c>
       <c r="R355" t="n">
-        <v>4.44</v>
+        <v>3.31</v>
       </c>
       <c r="S355" t="inlineStr">
         <is>
@@ -33104,16 +33104,16 @@
         </is>
       </c>
       <c r="T355" t="n">
-        <v>5.14</v>
+        <v>3.84</v>
       </c>
       <c r="U355" t="inlineStr">
         <is>
-          <t>11/11/2023 20:56</t>
+          <t>11/11/2023 20:55</t>
         </is>
       </c>
       <c r="V355" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-botafogo-sp/jwktn3xa/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-crb/dKHSpgtP/</t>
         </is>
       </c>
     </row>
@@ -33141,22 +33141,22 @@
       </c>
       <c r="F356" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G356" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H356" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J356" t="n">
-        <v>2.33</v>
+        <v>2.01</v>
       </c>
       <c r="K356" t="inlineStr">
         <is>
@@ -33164,15 +33164,15 @@
         </is>
       </c>
       <c r="L356" t="n">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="M356" t="inlineStr">
         <is>
-          <t>11/11/2023 20:55</t>
+          <t>11/11/2023 20:56</t>
         </is>
       </c>
       <c r="N356" t="n">
-        <v>3.04</v>
+        <v>3.1</v>
       </c>
       <c r="O356" t="inlineStr">
         <is>
@@ -33180,15 +33180,15 @@
         </is>
       </c>
       <c r="P356" t="n">
-        <v>3.23</v>
+        <v>3.32</v>
       </c>
       <c r="Q356" t="inlineStr">
         <is>
-          <t>11/11/2023 20:31</t>
+          <t>11/11/2023 20:56</t>
         </is>
       </c>
       <c r="R356" t="n">
-        <v>3.31</v>
+        <v>4.44</v>
       </c>
       <c r="S356" t="inlineStr">
         <is>
@@ -33196,16 +33196,16 @@
         </is>
       </c>
       <c r="T356" t="n">
-        <v>3.84</v>
+        <v>5.14</v>
       </c>
       <c r="U356" t="inlineStr">
         <is>
-          <t>11/11/2023 20:55</t>
+          <t>11/11/2023 20:56</t>
         </is>
       </c>
       <c r="V356" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/avai-crb/dKHSpgtP/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-botafogo-sp/jwktn3xa/</t>
         </is>
       </c>
     </row>
@@ -33298,6 +33298,98 @@
       <c r="V357" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-ponte-preta/UTmpoNi5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D358" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E358" s="2" t="n">
+        <v>45242.82291666666</v>
+      </c>
+      <c r="F358" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="G358" t="n">
+        <v>2</v>
+      </c>
+      <c r="H358" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="I358" t="n">
+        <v>0</v>
+      </c>
+      <c r="J358" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="M358" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:36</t>
+        </is>
+      </c>
+      <c r="N358" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O358" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P358" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="Q358" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:36</t>
+        </is>
+      </c>
+      <c r="R358" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S358" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T358" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U358" t="inlineStr">
+        <is>
+          <t>12/11/2023 19:35</t>
+        </is>
+      </c>
+      <c r="V358" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-mirassol/ARXrmqNh/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V358"/>
+  <dimension ref="A1:V359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24033,7 +24033,7 @@
       </c>
       <c r="F257" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G257" t="n">
@@ -24041,63 +24041,63 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I257" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J257" t="n">
-        <v>2.01</v>
+        <v>2.56</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="L257" t="n">
-        <v>1.98</v>
+        <v>2.52</v>
       </c>
       <c r="M257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="N257" t="n">
-        <v>3.17</v>
+        <v>2.84</v>
       </c>
       <c r="O257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="P257" t="n">
-        <v>3.28</v>
+        <v>2.78</v>
       </c>
       <c r="Q257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:55</t>
+          <t>02/09/2023 21:59</t>
         </is>
       </c>
       <c r="R257" t="n">
-        <v>4.02</v>
+        <v>3.16</v>
       </c>
       <c r="S257" t="inlineStr">
         <is>
-          <t>27/08/2023 16:13</t>
+          <t>29/08/2023 00:12</t>
         </is>
       </c>
       <c r="T257" t="n">
-        <v>4.45</v>
+        <v>3.61</v>
       </c>
       <c r="U257" t="inlineStr">
         <is>
-          <t>02/09/2023 21:57</t>
+          <t>02/09/2023 21:51</t>
         </is>
       </c>
       <c r="V257" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
         </is>
       </c>
     </row>
@@ -24125,7 +24125,7 @@
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G258" t="n">
@@ -24133,63 +24133,63 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="I258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J258" t="n">
-        <v>2.56</v>
+        <v>2.01</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="L258" t="n">
-        <v>2.52</v>
+        <v>1.98</v>
       </c>
       <c r="M258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="N258" t="n">
-        <v>2.84</v>
+        <v>3.17</v>
       </c>
       <c r="O258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="P258" t="n">
-        <v>2.78</v>
+        <v>3.28</v>
       </c>
       <c r="Q258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:59</t>
+          <t>02/09/2023 21:55</t>
         </is>
       </c>
       <c r="R258" t="n">
-        <v>3.16</v>
+        <v>4.02</v>
       </c>
       <c r="S258" t="inlineStr">
         <is>
-          <t>29/08/2023 00:12</t>
+          <t>27/08/2023 16:13</t>
         </is>
       </c>
       <c r="T258" t="n">
-        <v>3.61</v>
+        <v>4.45</v>
       </c>
       <c r="U258" t="inlineStr">
         <is>
-          <t>02/09/2023 21:51</t>
+          <t>02/09/2023 21:57</t>
         </is>
       </c>
       <c r="V258" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-sampaio-correa/dpmoRnrq/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-criciuma/p67AXl5F/</t>
         </is>
       </c>
     </row>
@@ -25781,71 +25781,71 @@
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>2.08</v>
+        <v>2.92</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
-          <t>11/09/2023 02:42</t>
+          <t>11/09/2023 08:12</t>
         </is>
       </c>
       <c r="L276" t="n">
-        <v>2.12</v>
+        <v>3.52</v>
       </c>
       <c r="M276" t="inlineStr">
         <is>
+          <t>16/09/2023 21:52</t>
+        </is>
+      </c>
+      <c r="N276" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="P276" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q276" t="inlineStr">
+        <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="N276" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="O276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="P276" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="Q276" t="inlineStr">
+      <c r="R276" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="S276" t="inlineStr">
+        <is>
+          <t>11/09/2023 08:12</t>
+        </is>
+      </c>
+      <c r="T276" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U276" t="inlineStr">
         <is>
           <t>16/09/2023 21:50</t>
         </is>
       </c>
-      <c r="R276" t="n">
-        <v>4.43</v>
-      </c>
-      <c r="S276" t="inlineStr">
-        <is>
-          <t>11/09/2023 02:42</t>
-        </is>
-      </c>
-      <c r="T276" t="n">
-        <v>4.62</v>
-      </c>
-      <c r="U276" t="inlineStr">
-        <is>
-          <t>16/09/2023 21:50</t>
-        </is>
-      </c>
       <c r="V276" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
         </is>
       </c>
     </row>
@@ -25873,46 +25873,46 @@
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G277" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>2.92</v>
+        <v>2.08</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="L277" t="n">
-        <v>3.52</v>
+        <v>2.12</v>
       </c>
       <c r="M277" t="inlineStr">
         <is>
-          <t>16/09/2023 21:52</t>
+          <t>16/09/2023 21:50</t>
         </is>
       </c>
       <c r="N277" t="n">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="O277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="P277" t="n">
-        <v>2.88</v>
+        <v>2.89</v>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
@@ -25920,15 +25920,15 @@
         </is>
       </c>
       <c r="R277" t="n">
-        <v>2.92</v>
+        <v>4.43</v>
       </c>
       <c r="S277" t="inlineStr">
         <is>
-          <t>11/09/2023 08:12</t>
+          <t>11/09/2023 02:42</t>
         </is>
       </c>
       <c r="T277" t="n">
-        <v>2.48</v>
+        <v>4.62</v>
       </c>
       <c r="U277" t="inlineStr">
         <is>
@@ -25937,7 +25937,7 @@
       </c>
       <c r="V277" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-atletico-go/M5cNa7l8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-chapecoense-sc/6gaZd5YQ/</t>
         </is>
       </c>
     </row>
@@ -26701,7 +26701,7 @@
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G286" t="n">
@@ -26709,63 +26709,63 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I286" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J286" t="n">
-        <v>2.09</v>
+        <v>2.55</v>
       </c>
       <c r="K286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="L286" t="n">
-        <v>2.14</v>
+        <v>2.4</v>
       </c>
       <c r="M286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:58</t>
         </is>
       </c>
       <c r="N286" t="n">
-        <v>3.03</v>
+        <v>2.89</v>
       </c>
       <c r="O286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="P286" t="n">
-        <v>3.06</v>
+        <v>2.91</v>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="R286" t="n">
-        <v>4.27</v>
+        <v>3.27</v>
       </c>
       <c r="S286" t="inlineStr">
         <is>
-          <t>18/09/2023 20:13</t>
+          <t>19/09/2023 01:12</t>
         </is>
       </c>
       <c r="T286" t="n">
-        <v>4.15</v>
+        <v>3.67</v>
       </c>
       <c r="U286" t="inlineStr">
         <is>
-          <t>23/09/2023 21:53</t>
+          <t>23/09/2023 21:59</t>
         </is>
       </c>
       <c r="V286" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
         </is>
       </c>
     </row>
@@ -26793,7 +26793,7 @@
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G287" t="n">
@@ -26801,63 +26801,63 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="n">
-        <v>2.55</v>
+        <v>2.09</v>
       </c>
       <c r="K287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="L287" t="n">
-        <v>2.4</v>
+        <v>2.14</v>
       </c>
       <c r="M287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:58</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="N287" t="n">
-        <v>2.89</v>
+        <v>3.03</v>
       </c>
       <c r="O287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="P287" t="n">
-        <v>2.91</v>
+        <v>3.06</v>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="R287" t="n">
-        <v>3.27</v>
+        <v>4.27</v>
       </c>
       <c r="S287" t="inlineStr">
         <is>
-          <t>19/09/2023 01:12</t>
+          <t>18/09/2023 20:13</t>
         </is>
       </c>
       <c r="T287" t="n">
-        <v>3.67</v>
+        <v>4.15</v>
       </c>
       <c r="U287" t="inlineStr">
         <is>
-          <t>23/09/2023 21:59</t>
+          <t>23/09/2023 21:53</t>
         </is>
       </c>
       <c r="V287" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ceara/OfNy52Qm/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-guarani/KMGp3te0/</t>
         </is>
       </c>
     </row>
@@ -28357,22 +28357,22 @@
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>Atletico GO</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
       <c r="J304" t="n">
-        <v>1.66</v>
+        <v>2.2</v>
       </c>
       <c r="K304" t="inlineStr">
         <is>
@@ -28380,15 +28380,15 @@
         </is>
       </c>
       <c r="L304" t="n">
-        <v>1.63</v>
+        <v>2.01</v>
       </c>
       <c r="M304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="N304" t="n">
-        <v>3.63</v>
+        <v>3.02</v>
       </c>
       <c r="O304" t="inlineStr">
         <is>
@@ -28396,15 +28396,15 @@
         </is>
       </c>
       <c r="P304" t="n">
-        <v>3.77</v>
+        <v>3.26</v>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="R304" t="n">
-        <v>5.97</v>
+        <v>3.87</v>
       </c>
       <c r="S304" t="inlineStr">
         <is>
@@ -28412,16 +28412,16 @@
         </is>
       </c>
       <c r="T304" t="n">
-        <v>6.24</v>
+        <v>4.36</v>
       </c>
       <c r="U304" t="inlineStr">
         <is>
-          <t>07/10/2023 02:26</t>
+          <t>07/10/2023 02:24</t>
         </is>
       </c>
       <c r="V304" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
         </is>
       </c>
     </row>
@@ -28449,22 +28449,22 @@
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="G305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
       <c r="J305" t="n">
-        <v>2.2</v>
+        <v>1.66</v>
       </c>
       <c r="K305" t="inlineStr">
         <is>
@@ -28472,15 +28472,15 @@
         </is>
       </c>
       <c r="L305" t="n">
-        <v>2.01</v>
+        <v>1.63</v>
       </c>
       <c r="M305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="N305" t="n">
-        <v>3.02</v>
+        <v>3.63</v>
       </c>
       <c r="O305" t="inlineStr">
         <is>
@@ -28488,15 +28488,15 @@
         </is>
       </c>
       <c r="P305" t="n">
-        <v>3.26</v>
+        <v>3.77</v>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="R305" t="n">
-        <v>3.87</v>
+        <v>5.97</v>
       </c>
       <c r="S305" t="inlineStr">
         <is>
@@ -28504,16 +28504,16 @@
         </is>
       </c>
       <c r="T305" t="n">
-        <v>4.36</v>
+        <v>6.24</v>
       </c>
       <c r="U305" t="inlineStr">
         <is>
-          <t>07/10/2023 02:24</t>
+          <t>07/10/2023 02:26</t>
         </is>
       </c>
       <c r="V305" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-ceara/IgpBFApN/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/atletico-go-ituano/OWOy1BVT/</t>
         </is>
       </c>
     </row>
@@ -32037,71 +32037,71 @@
       </c>
       <c r="F344" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H344" t="inlineStr">
         <is>
-          <t>Guarani</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I344" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J344" t="n">
-        <v>2.84</v>
+        <v>1.77</v>
       </c>
       <c r="K344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="L344" t="n">
-        <v>2.88</v>
+        <v>1.83</v>
       </c>
       <c r="M344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="N344" t="n">
-        <v>2.72</v>
+        <v>3.34</v>
       </c>
       <c r="O344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="P344" t="n">
-        <v>2.99</v>
+        <v>3.33</v>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:12</t>
         </is>
       </c>
       <c r="R344" t="n">
-        <v>2.99</v>
+        <v>5.52</v>
       </c>
       <c r="S344" t="inlineStr">
         <is>
-          <t>29/10/2023 22:42</t>
+          <t>29/10/2023 23:12</t>
         </is>
       </c>
       <c r="T344" t="n">
-        <v>2.85</v>
+        <v>5.27</v>
       </c>
       <c r="U344" t="inlineStr">
         <is>
-          <t>04/11/2023 01:25</t>
+          <t>04/11/2023 01:22</t>
         </is>
       </c>
       <c r="V344" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
         </is>
       </c>
     </row>
@@ -32129,71 +32129,71 @@
       </c>
       <c r="F345" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H345" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Guarani</t>
         </is>
       </c>
       <c r="I345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J345" t="n">
-        <v>1.77</v>
+        <v>2.84</v>
       </c>
       <c r="K345" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="L345" t="n">
-        <v>1.83</v>
+        <v>2.88</v>
       </c>
       <c r="M345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:12</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="N345" t="n">
-        <v>3.34</v>
+        <v>2.72</v>
       </c>
       <c r="O345" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="P345" t="n">
-        <v>3.33</v>
+        <v>2.99</v>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:12</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="R345" t="n">
-        <v>5.52</v>
+        <v>2.99</v>
       </c>
       <c r="S345" t="inlineStr">
         <is>
-          <t>29/10/2023 23:12</t>
+          <t>29/10/2023 22:42</t>
         </is>
       </c>
       <c r="T345" t="n">
-        <v>5.27</v>
+        <v>2.85</v>
       </c>
       <c r="U345" t="inlineStr">
         <is>
-          <t>04/11/2023 01:22</t>
+          <t>04/11/2023 01:25</t>
         </is>
       </c>
       <c r="V345" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-ituano/Ug78kHRg/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-guarani/SvQBlys0/</t>
         </is>
       </c>
     </row>
@@ -32221,71 +32221,71 @@
       </c>
       <c r="F346" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G346" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H346" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J346" t="n">
-        <v>2.41</v>
+        <v>2.33</v>
       </c>
       <c r="K346" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="L346" t="n">
-        <v>2.28</v>
+        <v>2.52</v>
       </c>
       <c r="M346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:45</t>
         </is>
       </c>
       <c r="N346" t="n">
-        <v>2.88</v>
+        <v>2.97</v>
       </c>
       <c r="O346" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="P346" t="n">
-        <v>2.98</v>
+        <v>2.86</v>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:38</t>
         </is>
       </c>
       <c r="R346" t="n">
-        <v>3.55</v>
+        <v>3.61</v>
       </c>
       <c r="S346" t="inlineStr">
         <is>
-          <t>29/10/2023 04:42</t>
+          <t>29/10/2023 02:42</t>
         </is>
       </c>
       <c r="T346" t="n">
-        <v>3.86</v>
+        <v>3.48</v>
       </c>
       <c r="U346" t="inlineStr">
         <is>
-          <t>04/11/2023 20:59</t>
+          <t>04/11/2023 20:45</t>
         </is>
       </c>
       <c r="V346" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ceara/xdSTdaZJ/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-avai/SQpwzxS6/</t>
         </is>
       </c>
     </row>
@@ -32313,71 +32313,71 @@
       </c>
       <c r="F347" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G347" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H347" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="I347" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J347" t="n">
-        <v>2.33</v>
+        <v>2.41</v>
       </c>
       <c r="K347" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="L347" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="M347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:45</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="N347" t="n">
-        <v>2.97</v>
+        <v>2.88</v>
       </c>
       <c r="O347" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="P347" t="n">
-        <v>2.86</v>
+        <v>2.98</v>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:38</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="R347" t="n">
-        <v>3.61</v>
+        <v>3.55</v>
       </c>
       <c r="S347" t="inlineStr">
         <is>
-          <t>29/10/2023 02:42</t>
+          <t>29/10/2023 04:42</t>
         </is>
       </c>
       <c r="T347" t="n">
-        <v>3.48</v>
+        <v>3.86</v>
       </c>
       <c r="U347" t="inlineStr">
         <is>
-          <t>04/11/2023 20:45</t>
+          <t>04/11/2023 20:59</t>
         </is>
       </c>
       <c r="V347" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-avai/SQpwzxS6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-ceara/xdSTdaZJ/</t>
         </is>
       </c>
     </row>
@@ -33390,6 +33390,98 @@
       <c r="V358" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-mirassol/ARXrmqNh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>brazil</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>serie-b</t>
+        </is>
+      </c>
+      <c r="D359" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E359" s="2" t="n">
+        <v>45242.91666666666</v>
+      </c>
+      <c r="F359" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="G359" t="n">
+        <v>1</v>
+      </c>
+      <c r="H359" t="inlineStr">
+        <is>
+          <t>Vitoria</t>
+        </is>
+      </c>
+      <c r="I359" t="n">
+        <v>2</v>
+      </c>
+      <c r="J359" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M359" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="N359" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O359" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P359" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q359" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:55</t>
+        </is>
+      </c>
+      <c r="R359" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="S359" t="inlineStr">
+        <is>
+          <t>05/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T359" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="U359" t="inlineStr">
+        <is>
+          <t>12/11/2023 21:58</t>
+        </is>
+      </c>
+      <c r="V359" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-vitoria/xEZzk5ht/</t>
         </is>
       </c>
     </row>

--- a/2023/brazil_serie-b_2023.xlsx
+++ b/2023/brazil_serie-b_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V359"/>
+  <dimension ref="A1:V361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2229,46 +2229,46 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.73</v>
+        <v>2.13</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>28/04/2023 23:49</t>
+          <t>28/04/2023 23:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.37</v>
+        <v>3.31</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.49</v>
+        <v>3.45</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
@@ -2276,15 +2276,15 @@
         </is>
       </c>
       <c r="R20" t="n">
-        <v>5.21</v>
+        <v>3.45</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>22/04/2023 21:12</t>
+          <t>23/04/2023 23:12</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>5.46</v>
+        <v>4.94</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
@@ -2293,7 +2293,7 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>2.13</v>
+        <v>1.73</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>23/04/2023 23:12</t>
+          <t>22/04/2023 21:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>28/04/2023 23:49</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.31</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q21" t="inlineStr">
+      <c r="R21" t="n">
+        <v>5.21</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>22/04/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>5.46</v>
+      </c>
+      <c r="U21" t="inlineStr">
         <is>
           <t>28/04/2023 23:59</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>23/04/2023 23:12</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>4.94</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>28/04/2023 23:59</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-londrina/W80E7CgF/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-avai/xd4Opkn2/</t>
         </is>
       </c>
     </row>
@@ -2597,19 +2597,19 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
         <v>2.2</v>
@@ -2620,15 +2620,15 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.43</v>
+        <v>2.37</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.09</v>
+        <v>3.04</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:51</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.54</v>
+        <v>3.84</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.46</v>
+        <v>3.52</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>29/04/2023 21:57</t>
+          <t>29/04/2023 21:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
         </is>
       </c>
     </row>
@@ -2689,19 +2689,19 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>2.2</v>
@@ -2712,15 +2712,15 @@
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.37</v>
+        <v>2.43</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.04</v>
+        <v>3.09</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2728,15 +2728,15 @@
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:51</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.84</v>
+        <v>3.54</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
@@ -2744,16 +2744,16 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.52</v>
+        <v>3.46</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>29/04/2023 21:59</t>
+          <t>29/04/2023 21:57</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-ponte-preta/vZ3M5jOR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-crb/jah69YO2/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.86</v>
+        <v>2.03</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.33</v>
+        <v>3.06</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.51</v>
+        <v>3.25</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:57</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>4.47</v>
+        <v>3.72</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>4.68</v>
+        <v>4.28</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/05/2023 23:59</t>
+          <t>02/05/2023 23:23</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.03</v>
+        <v>1.86</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.06</v>
+        <v>3.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.25</v>
+        <v>3.51</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:57</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.72</v>
+        <v>4.47</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>4.28</v>
+        <v>4.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/05/2023 23:23</t>
+          <t>02/05/2023 23:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ponte-preta-botafogo-sp/xAqcal1e/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-sampaio-correa/pf7UaLi6/</t>
         </is>
       </c>
     </row>
@@ -3517,46 +3517,46 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G34" t="n">
+        <v>3</v>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>2</v>
-      </c>
       <c r="J34" t="n">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.13</v>
+        <v>3.09</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
@@ -3564,24 +3564,24 @@
         </is>
       </c>
       <c r="R34" t="n">
-        <v>3.35</v>
+        <v>4.28</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>30/04/2023 20:42</t>
+          <t>30/04/2023 23:13</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>3.65</v>
+        <v>3.63</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>03/05/2023 23:59</t>
+          <t>03/05/2023 23:57</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" t="n">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
+          <t>03/05/2023 23:59</t>
+        </is>
+      </c>
+      <c r="N35" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>30/04/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P35" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
           <t>03/05/2023 23:57</t>
         </is>
       </c>
-      <c r="N35" t="n">
+      <c r="R35" t="n">
         <v>3.35</v>
       </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>30/04/2023 23:13</t>
-        </is>
-      </c>
-      <c r="P35" t="n">
-        <v>3.09</v>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>03/05/2023 23:57</t>
-        </is>
-      </c>
-      <c r="R35" t="n">
-        <v>4.28</v>
-      </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>30/04/2023 23:13</t>
+          <t>30/04/2023 20:42</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.63</v>
+        <v>3.65</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>03/05/2023 23:57</t>
+          <t>03/05/2023 23:59</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-abc/AFmtMB88/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-novorizontino/l6npLVNE/</t>
         </is>
       </c>
     </row>
@@ -4069,30 +4069,30 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I40" t="n">
         <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
@@ -4100,15 +4100,15 @@
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.08</v>
+        <v>3.21</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.44</v>
+        <v>3.32</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
@@ -4116,15 +4116,15 @@
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.31</v>
+        <v>3.4</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>04/05/2023 00:12</t>
+          <t>04/05/2023 02:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.11</v>
+        <v>4.16</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
@@ -4133,7 +4133,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
         </is>
       </c>
     </row>
@@ -4253,30 +4253,30 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="L42" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
@@ -4284,15 +4284,15 @@
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.21</v>
+        <v>3.08</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.32</v>
+        <v>3.44</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
@@ -4300,15 +4300,15 @@
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.4</v>
+        <v>3.31</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>04/05/2023 02:42</t>
+          <t>04/05/2023 00:12</t>
         </is>
       </c>
       <c r="T42" t="n">
-        <v>4.16</v>
+        <v>4.11</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
@@ -4317,7 +4317,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/tombense-avai/xlW7DvM5/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-esporte-clube-juventude/UNSaF0ig/</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G43" t="n">
@@ -4353,14 +4353,14 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>1</v>
       </c>
       <c r="J43" t="n">
-        <v>2.21</v>
+        <v>1.89</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>2.54</v>
+        <v>1.72</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.13</v>
+        <v>3.24</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.05</v>
+        <v>3.52</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.47</v>
+        <v>4.42</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>3.21</v>
+        <v>5.77</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>07/05/2023 01:23</t>
+          <t>07/05/2023 01:29</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I44" t="n">
         <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>1.89</v>
+        <v>2.21</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.72</v>
+        <v>2.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.24</v>
+        <v>3.13</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.52</v>
+        <v>3.05</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>4.42</v>
+        <v>3.47</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.77</v>
+        <v>3.21</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>07/05/2023 01:29</t>
+          <t>07/05/2023 01:23</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-abc/KCLCCbyC/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/chapecoense-sc-novorizontino/OpS3EK6a/</t>
         </is>
       </c>
     </row>
@@ -6921,22 +6921,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Avai</t>
         </is>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.19</v>
+        <v>1.69</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -6944,15 +6944,15 @@
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.5</v>
+        <v>1.71</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.17</v>
+        <v>3.5</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -6960,15 +6960,15 @@
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.09</v>
+        <v>3.66</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:23</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>3.46</v>
+        <v>5.26</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
@@ -6976,16 +6976,16 @@
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.23</v>
+        <v>5.62</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>24/05/2023 02:29</t>
+          <t>24/05/2023 02:21</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
         </is>
       </c>
     </row>
@@ -7013,22 +7013,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Novorizontino</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Avai</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.69</v>
+        <v>2.19</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -7036,15 +7036,15 @@
         </is>
       </c>
       <c r="L72" t="n">
-        <v>1.71</v>
+        <v>2.5</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.5</v>
+        <v>3.17</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
@@ -7052,15 +7052,15 @@
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.66</v>
+        <v>3.09</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:23</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>5.26</v>
+        <v>3.46</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
@@ -7068,16 +7068,16 @@
         </is>
       </c>
       <c r="T72" t="n">
-        <v>5.62</v>
+        <v>3.23</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>24/05/2023 02:21</t>
+          <t>24/05/2023 02:29</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/novorizontino-avai/b1klwP0c/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-tombense/vXOXHEUl/</t>
         </is>
       </c>
     </row>
@@ -7105,62 +7105,62 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Atletico GO</t>
         </is>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
       <c r="J73" t="n">
-        <v>1.78</v>
+        <v>2.5</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>1.71</v>
+        <v>2.15</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>24/05/2023 23:37</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="N73" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>21/05/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
         <v>3.35</v>
       </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>21/05/2023 23:42</t>
-        </is>
-      </c>
-      <c r="P73" t="n">
-        <v>3.41</v>
-      </c>
       <c r="Q73" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>4.92</v>
+        <v>3.1</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>21/05/2023 23:42</t>
+          <t>21/05/2023 16:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>5.69</v>
+        <v>3.7</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
@@ -7169,7 +7169,7 @@
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Vila Nova FC</t>
+          <t>Vitoria</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:37</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.39</v>
+        <v>3.41</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:53</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>4.98</v>
+        <v>4.92</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>5.65</v>
+        <v>5.69</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>24/05/2023 23:56</t>
+          <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vitoria-crb/SzfhxqG3/</t>
         </is>
       </c>
     </row>
@@ -7289,7 +7289,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Vila Nova FC</t>
         </is>
       </c>
       <c r="G75" t="n">
@@ -7297,63 +7297,63 @@
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>2.67</v>
+        <v>1.84</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.83</v>
+        <v>1.77</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>2.98</v>
+        <v>3.32</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.12</v>
+        <v>3.39</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>3</v>
+        <v>4.98</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:42</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.79</v>
+        <v>5.65</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>24/05/2023 23:58</t>
+          <t>24/05/2023 23:56</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/vila-nova-fc-ituano/428cG1gp/</t>
         </is>
       </c>
     </row>
@@ -7381,30 +7381,30 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Juventude</t>
+          <t>Londrina</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Ceara</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>3</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Atletico GO</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.5</v>
+        <v>2.67</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.15</v>
+        <v>2.83</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
@@ -7412,40 +7412,40 @@
         </is>
       </c>
       <c r="N76" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>21/05/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
         <v>3.12</v>
       </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>21/05/2023 16:12</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.35</v>
-      </c>
       <c r="Q76" t="inlineStr">
         <is>
           <t>24/05/2023 23:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>21/05/2023 16:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.7</v>
+        <v>2.79</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>24/05/2023 23:59</t>
+          <t>24/05/2023 23:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/esporte-clube-juventude-atletico-go/ljr1zNpG/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/londrina-ceara/pAPTIfFr/</t>
         </is>
       </c>
     </row>
@@ -7565,71 +7565,71 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Sampaio Correa</t>
+          <t>Criciuma</t>
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Ponte Preta</t>
+          <t>Sport Recife</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.28</v>
+        <v>2.31</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.09</v>
+        <v>3.17</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.08</v>
+        <v>3.03</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:29</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.35</v>
+        <v>3.21</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>21/05/2023 23:12</t>
+          <t>21/05/2023 20:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.78</v>
+        <v>3.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/05/2023 02:19</t>
+          <t>25/05/2023 02:28</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
         </is>
       </c>
     </row>
@@ -7657,71 +7657,71 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Sampaio Correa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Sport Recife</t>
+          <t>Ponte Preta</t>
         </is>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>2.31</v>
+        <v>2.28</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.17</v>
+        <v>3.09</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.03</v>
+        <v>3.08</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:29</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>3.21</v>
+        <v>3.35</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>21/05/2023 20:42</t>
+          <t>21/05/2023 23:12</t>
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.39</v>
+        <v>3.78</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>25/05/2023 02:28</t>
+          <t>25/05/2023 02:19</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/criciuma-sport-recife/I5C1FL8j/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/sampaio-correa-ponte-preta/6Rhdy3V9/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>CRB</t>
+          <t>Ituano</t>
         </is>
       </c>
       <c r="G80" t="n">
+        <v>3</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Londrina</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
         <v>1</v>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Juventude</t>
-        </is>
-      </c>
-      <c r="I80" t="n">
-        <v>2</v>
-      </c>
       <c r="J80" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.53</v>
+        <v>1.97</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.22</v>
+        <v>3.14</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.08</v>
+        <v>3.24</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 21:31</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>3.57</v>
+        <v>3.8</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.2</v>
+        <v>4.56</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>27/05/2023 21:52</t>
+          <t>27/05/2023 22:00</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
         </is>
       </c>
     </row>
@@ -7841,22 +7841,22 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Ituano</t>
+          <t>CRB</t>
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Londrina</t>
+          <t>Juventude</t>
         </is>
       </c>
       <c r="I81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -7864,15 +7864,15 @@
         </is>
       </c>
       <c r="L81" t="n">
-        <v>1.97</v>
+        <v>2.53</v>
       </c>
       <c r="M81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="N81" t="n">
-        <v>3.14</v>
+        <v>3.22</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -7880,15 +7880,15 @@
         </is>
       </c>
       <c r="P81" t="n">
-        <v>3.24</v>
+        <v>3.08</v>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>27/05/2023 21:31</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="R81" t="n">
-        <v>3.8</v>
+        <v>3.57</v>
       </c>
       <c r="S81" t="inlineStr">
         <is>
@@ -7896,16 +7896,16 @@
         </is>
       </c>
       <c r="T81" t="n">
-        <v>4.56</v>
+        <v>3.2</v>
       </c>
       <c r="U81" t="inlineStr">
         <is>
-          <t>27/05/2023 22:00</t>
+          <t>27/05/2023 21:52</t>
         </is>
       </c>
       <c r="V81" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ituano-londrina/Sh5Swdi8/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/crb-esporte-clube-juventude/f9YFUiEf/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>1</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Criciuma</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>3</v>
-      </c>
       <c r="J85" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.09</v>
+        <v>2</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:20</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.22</v>
+        <v>3.36</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.18</v>
+        <v>3.31</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.8</v>
+        <v>4.05</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.15</v>
+        <v>4.3</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>28/05/2023 20:29</t>
+          <t>28/05/2023 20:21</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Criciuma</t>
+          <t>Novorizontino</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J86" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:20</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.36</v>
+        <v>3.22</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.31</v>
+        <v>3.18</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.05</v>
+        <v>3.8</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.3</v>
+        <v>4.15</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>28/05/2023 20:21</t>
+          <t>28/05/2023 20:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-criciuma/td9WxG6E/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-novorizontino/2BcuyfyR/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Ceara</t>
+          <t>Botafogo SP</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Chapecoense-SC</t>
+          <t>Tombense</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.7</v>
+        <v>2.09</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.61</v>
+        <v>2.05</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.48</v>
+        <v>3.28</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.87</v>
+        <v>3.36</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.2</v>
+        <v>3.61</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>6.37</v>
+        <v>4.03</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>02/06/2023 23:34</t>
+          <t>02/06/2023 23:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Botafogo SP</t>
+          <t>Ceara</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Tombense</t>
+          <t>Chapecoense-SC</t>
         </is>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>2.09</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,15 +8784,15 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.05</v>
+        <v>1.61</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.28</v>
+        <v>3.48</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.36</v>
+        <v>3.87</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:58</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.61</v>
+        <v>5.2</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,16 +8816,16 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>4.03</v>
+        <v>6.37</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>02/06/2023 23:59</t>
+          <t>02/06/2023 23:34</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/botafogo-sp-tombense/IsKAjZzE/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/ceara-chapecoense-sc/Qm9ppXDs/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Mirassol</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Novorizontino</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>1</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Ponte Preta</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.79</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.3</v>
+        <v>3.13</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.56</v>
+        <v>3.03</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.55</v>
+        <v>2.53</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>5.11</v>
+        <v>2.26</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>03/06/2023 21:55</t>
+          <t>03/06/2023 21:53</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/brazil/serie-b/mirassol-ponte-preta/dYIEkgjK/</t>
+          <t>https://www.betexplorer.com/football/brazil/serie-b/abc-novorizontino/Gx2csVc0/</t>
         </is>
       </c>
     </row>
@@ -9221,22 +9221,22 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>ABC</t>
+          <t>Mirassol</t>
         </is>
       </c>
       <c r="G96" t="n">
+        <v>1</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Ponte Preta</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>Novorizontino</t>
-        </is>
-      </c>
-      <c r="I96" t="n">
-        <v>1</v>
-      </c>
       <c r="J96" t="n">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -9244,15 +9244,15 @@
         </is>
       </c>
       <c r="L96" t="n">
-        <v>3.82</v>
+        <v>1.79</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>03/06/2023 21:53</t>
+          <t>03/06/2023 21:55</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.13</v>
+        <v>3.3</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
@@ -9260,15 +9260,15 @@
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.03</v>
+        <v>3.56</v>
       </c>
       <c r="Q96" t="i